--- a/JupyterNotebooks/AvgHW/RGossF-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.13812583407412</v>
+      </c>
+      <c r="D3">
         <v>1.074322521749746</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.13812583407412</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.028371664848311</v>
       </c>
-      <c r="F3">
-        <v>1.074322521749746</v>
-      </c>
       <c r="G3">
-        <v>1.18952273199042</v>
+        <v>0.9594495978048744</v>
       </c>
       <c r="H3">
         <v>0.9625741815834203</v>
       </c>
       <c r="I3">
-        <v>0.9594495978048744</v>
+        <v>1.18952273199042</v>
       </c>
       <c r="J3">
-        <v>1.13812583407412</v>
+        <v>1.074322521749746</v>
       </c>
       <c r="K3">
         <v>1.074322521749746</v>
@@ -676,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.210728614005556</v>
+      </c>
+      <c r="D4">
         <v>1.101847130511523</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.210728614005556</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.055484369385754</v>
       </c>
-      <c r="F4">
-        <v>1.101847130511523</v>
-      </c>
       <c r="G4">
-        <v>1.4201230499714</v>
+        <v>0.9642660778151785</v>
       </c>
       <c r="H4">
         <v>0.9214055545644101</v>
       </c>
       <c r="I4">
-        <v>0.9642660778151785</v>
+        <v>1.4201230499714</v>
       </c>
       <c r="J4">
-        <v>1.210728614005556</v>
+        <v>1.101847130511523</v>
       </c>
       <c r="K4">
         <v>1.101847130511523</v>
@@ -738,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.746332711727221</v>
+      </c>
+      <c r="D5">
         <v>1.271927119364566</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.746332711727221</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.411728094020053</v>
       </c>
-      <c r="F5">
-        <v>1.271927119364566</v>
-      </c>
       <c r="G5">
-        <v>1.825014655592563</v>
+        <v>0.8703920673765215</v>
       </c>
       <c r="H5">
         <v>0.7492218577003725</v>
       </c>
       <c r="I5">
-        <v>0.8703920673765215</v>
+        <v>1.825014655592563</v>
       </c>
       <c r="J5">
-        <v>1.746332711727221</v>
+        <v>1.271927119364566</v>
       </c>
       <c r="K5">
         <v>1.271927119364566</v>
@@ -800,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>3.278424772974699</v>
+      </c>
+      <c r="D6">
         <v>2.163375059874473</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3.278424772974699</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.7460549379795592</v>
       </c>
-      <c r="F6">
-        <v>2.163375059874473</v>
-      </c>
       <c r="G6">
-        <v>2.211570024874084</v>
+        <v>1.076766166713142</v>
       </c>
       <c r="H6">
         <v>0.9097609234204282</v>
       </c>
       <c r="I6">
-        <v>1.076766166713142</v>
+        <v>2.211570024874084</v>
       </c>
       <c r="J6">
-        <v>3.278424772974699</v>
+        <v>2.163375059874473</v>
       </c>
       <c r="K6">
         <v>2.163375059874473</v>
@@ -862,43 +874,43 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9978198164643187</v>
+      </c>
+      <c r="D7">
         <v>1.029843163347551</v>
       </c>
-      <c r="D7">
-        <v>0.9978198164643189</v>
-      </c>
       <c r="E7">
-        <v>0.9988883595848499</v>
+        <v>0.9978198164643187</v>
       </c>
       <c r="F7">
+        <v>0.998888359584849</v>
+      </c>
+      <c r="G7">
+        <v>0.9989491750092826</v>
+      </c>
+      <c r="H7">
+        <v>0.9985360803273202</v>
+      </c>
+      <c r="I7">
+        <v>0.9994401891882886</v>
+      </c>
+      <c r="J7">
         <v>1.029843163347551</v>
-      </c>
-      <c r="G7">
-        <v>0.9994401891882877</v>
-      </c>
-      <c r="H7">
-        <v>0.9985360803273204</v>
-      </c>
-      <c r="I7">
-        <v>0.9989491750092833</v>
-      </c>
-      <c r="J7">
-        <v>0.9978198164643189</v>
       </c>
       <c r="K7">
         <v>1.029843163347551</v>
       </c>
       <c r="L7">
-        <v>0.9988883595848499</v>
+        <v>0.998888359584849</v>
       </c>
       <c r="M7">
-        <v>0.9983540880245845</v>
+        <v>0.9983540880245838</v>
       </c>
       <c r="N7">
-        <v>0.9983540880245845</v>
+        <v>0.9983540880245838</v>
       </c>
       <c r="O7">
-        <v>0.9984147521254965</v>
+        <v>0.9984147521254959</v>
       </c>
       <c r="P7">
         <v>1.008850446465573</v>
@@ -907,13 +919,13 @@
         <v>1.008850446465573</v>
       </c>
       <c r="R7">
-        <v>1.014098625686068</v>
+        <v>1.014098625686067</v>
       </c>
       <c r="S7">
-        <v>1.014098625686068</v>
+        <v>1.014098625686067</v>
       </c>
       <c r="T7">
-        <v>1.003912797320269</v>
+        <v>1.003912797320268</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +936,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.078711463388964</v>
+        <v>0.9819980349542811</v>
       </c>
       <c r="D8">
-        <v>0.9819980349542807</v>
+        <v>1.078711463388967</v>
       </c>
       <c r="E8">
-        <v>0.9971302055268659</v>
+        <v>0.9819980349542811</v>
       </c>
       <c r="F8">
-        <v>1.078711463388964</v>
+        <v>0.9971302055268662</v>
       </c>
       <c r="G8">
-        <v>0.9954523726943252</v>
+        <v>0.9968328938724924</v>
       </c>
       <c r="H8">
         <v>0.9957750383952585</v>
       </c>
       <c r="I8">
-        <v>0.996832893872493</v>
+        <v>0.9954523726943254</v>
       </c>
       <c r="J8">
-        <v>0.9819980349542807</v>
+        <v>1.078711463388967</v>
       </c>
       <c r="K8">
-        <v>1.078711463388964</v>
+        <v>1.078711463388967</v>
       </c>
       <c r="L8">
-        <v>0.9971302055268659</v>
+        <v>0.9971302055268662</v>
       </c>
       <c r="M8">
-        <v>0.9895641202405734</v>
+        <v>0.9895641202405736</v>
       </c>
       <c r="N8">
-        <v>0.9895641202405734</v>
+        <v>0.9895641202405736</v>
       </c>
       <c r="O8">
-        <v>0.9916344262921352</v>
+        <v>0.9916344262921353</v>
       </c>
       <c r="P8">
-        <v>1.019279901290037</v>
+        <v>1.019279901290038</v>
       </c>
       <c r="Q8">
-        <v>1.019279901290037</v>
+        <v>1.019279901290038</v>
       </c>
       <c r="R8">
-        <v>1.034137791814769</v>
+        <v>1.034137791814771</v>
       </c>
       <c r="S8">
-        <v>1.034137791814769</v>
+        <v>1.034137791814771</v>
       </c>
       <c r="T8">
-        <v>1.007650001472031</v>
+        <v>1.007650001472032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,34 +998,34 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.031945232691077</v>
+      </c>
+      <c r="D9">
         <v>1.111478133304049</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.031945232691077</v>
       </c>
-      <c r="E9">
-        <v>0.9852810997380724</v>
-      </c>
       <c r="F9">
+        <v>0.9852810997380727</v>
+      </c>
+      <c r="G9">
+        <v>1.0014586231768</v>
+      </c>
+      <c r="H9">
+        <v>0.9901247052543173</v>
+      </c>
+      <c r="I9">
+        <v>0.9733221962586378</v>
+      </c>
+      <c r="J9">
         <v>1.111478133304049</v>
-      </c>
-      <c r="G9">
-        <v>0.9733221962586378</v>
-      </c>
-      <c r="H9">
-        <v>0.9901247052543171</v>
-      </c>
-      <c r="I9">
-        <v>1.0014586231768</v>
-      </c>
-      <c r="J9">
-        <v>1.031945232691077</v>
       </c>
       <c r="K9">
         <v>1.111478133304049</v>
       </c>
       <c r="L9">
-        <v>0.9852810997380724</v>
+        <v>0.9852810997380727</v>
       </c>
       <c r="M9">
         <v>1.008613166214575</v>
@@ -1048,34 +1060,34 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.027160859135486</v>
+      </c>
+      <c r="D10">
         <v>1.24660084764939</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.027160859135486</v>
       </c>
-      <c r="E10">
-        <v>0.9860275616243576</v>
-      </c>
       <c r="F10">
-        <v>1.24660084764939</v>
+        <v>0.9860275616243577</v>
       </c>
       <c r="G10">
-        <v>0.9678202625954544</v>
+        <v>0.9914481327333448</v>
       </c>
       <c r="H10">
         <v>0.9793326486777579</v>
       </c>
       <c r="I10">
-        <v>0.9914481327333448</v>
+        <v>0.9678202625954544</v>
       </c>
       <c r="J10">
-        <v>1.027160859135486</v>
+        <v>1.24660084764939</v>
       </c>
       <c r="K10">
         <v>1.24660084764939</v>
       </c>
       <c r="L10">
-        <v>0.9860275616243576</v>
+        <v>0.9860275616243577</v>
       </c>
       <c r="M10">
         <v>1.006594210379922</v>
@@ -1110,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.424673424588713</v>
+      </c>
+      <c r="D11">
         <v>1.502673962582817</v>
       </c>
-      <c r="D11">
-        <v>1.424673424588714</v>
-      </c>
       <c r="E11">
+        <v>1.424673424588713</v>
+      </c>
+      <c r="F11">
         <v>0.8888749234921016</v>
       </c>
-      <c r="F11">
-        <v>1.502673962582817</v>
-      </c>
       <c r="G11">
-        <v>0.7780666993137296</v>
+        <v>1.000393184592135</v>
       </c>
       <c r="H11">
         <v>1.071269861644135</v>
       </c>
       <c r="I11">
-        <v>1.000393184592135</v>
+        <v>0.7780666993137296</v>
       </c>
       <c r="J11">
-        <v>1.424673424588714</v>
+        <v>1.502673962582817</v>
       </c>
       <c r="K11">
         <v>1.502673962582817</v>
@@ -1140,10 +1152,10 @@
         <v>0.8888749234921016</v>
       </c>
       <c r="M11">
-        <v>1.156774174040408</v>
+        <v>1.156774174040407</v>
       </c>
       <c r="N11">
-        <v>1.156774174040408</v>
+        <v>1.156774174040407</v>
       </c>
       <c r="O11">
         <v>1.128272736574983</v>
@@ -1172,58 +1184,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.04323703425391155</v>
+        <v>0.002303868019616867</v>
       </c>
       <c r="D12">
-        <v>0.00230386801961687</v>
+        <v>0.04323703425391151</v>
       </c>
       <c r="E12">
-        <v>1.478040375546566</v>
+        <v>0.002303868019616867</v>
       </c>
       <c r="F12">
-        <v>0.04323703425391155</v>
+        <v>1.478040375546567</v>
       </c>
       <c r="G12">
+        <v>1.437118756671864</v>
+      </c>
+      <c r="H12">
+        <v>0.7438671392546323</v>
+      </c>
+      <c r="I12">
         <v>0.04493336651283093</v>
       </c>
-      <c r="H12">
-        <v>0.7438671392546315</v>
-      </c>
-      <c r="I12">
-        <v>1.437118756671864</v>
-      </c>
       <c r="J12">
-        <v>0.00230386801961687</v>
+        <v>0.04323703425391151</v>
       </c>
       <c r="K12">
-        <v>0.04323703425391155</v>
+        <v>0.04323703425391151</v>
       </c>
       <c r="L12">
-        <v>1.478040375546566</v>
+        <v>1.478040375546567</v>
       </c>
       <c r="M12">
-        <v>0.7401721217830912</v>
+        <v>0.7401721217830917</v>
       </c>
       <c r="N12">
-        <v>0.7401721217830912</v>
+        <v>0.7401721217830917</v>
       </c>
       <c r="O12">
-        <v>0.7414037942736047</v>
+        <v>0.7414037942736051</v>
       </c>
       <c r="P12">
-        <v>0.5078604259400313</v>
+        <v>0.5078604259400316</v>
       </c>
       <c r="Q12">
-        <v>0.5078604259400313</v>
+        <v>0.5078604259400317</v>
       </c>
       <c r="R12">
-        <v>0.3917045780185014</v>
+        <v>0.3917045780185016</v>
       </c>
       <c r="S12">
-        <v>0.3917045780185014</v>
+        <v>0.3917045780185016</v>
       </c>
       <c r="T12">
-        <v>0.6249167567099034</v>
+        <v>0.6249167567099038</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1246,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.195642819680751</v>
+        <v>2.359723982081754</v>
       </c>
       <c r="D13">
-        <v>2.359723982081749</v>
+        <v>2.195642819680752</v>
       </c>
       <c r="E13">
-        <v>0.0612939820474509</v>
+        <v>2.359723982081754</v>
       </c>
       <c r="F13">
-        <v>2.195642819680751</v>
+        <v>0.06129398204745091</v>
       </c>
       <c r="G13">
+        <v>0.4768826445781505</v>
+      </c>
+      <c r="H13">
+        <v>1.253314960072906</v>
+      </c>
+      <c r="I13">
         <v>2.989604547419955</v>
       </c>
-      <c r="H13">
-        <v>1.253314960072907</v>
-      </c>
-      <c r="I13">
-        <v>0.4768826445781505</v>
-      </c>
       <c r="J13">
-        <v>2.359723982081749</v>
+        <v>2.195642819680752</v>
       </c>
       <c r="K13">
-        <v>2.195642819680751</v>
+        <v>2.195642819680752</v>
       </c>
       <c r="L13">
-        <v>0.0612939820474509</v>
+        <v>0.06129398204745091</v>
       </c>
       <c r="M13">
-        <v>1.2105089820646</v>
+        <v>1.210508982064603</v>
       </c>
       <c r="N13">
-        <v>1.2105089820646</v>
+        <v>1.210508982064603</v>
       </c>
       <c r="O13">
-        <v>1.224777641400703</v>
+        <v>1.224777641400704</v>
       </c>
       <c r="P13">
-        <v>1.538886927936651</v>
+        <v>1.538886927936653</v>
       </c>
       <c r="Q13">
-        <v>1.53888692793665</v>
+        <v>1.538886927936652</v>
       </c>
       <c r="R13">
-        <v>1.703075900872675</v>
+        <v>1.703075900872677</v>
       </c>
       <c r="S13">
-        <v>1.703075900872675</v>
+        <v>1.703075900872677</v>
       </c>
       <c r="T13">
-        <v>1.55607715598016</v>
+        <v>1.556077155980161</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1308,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.000985113422400172</v>
+        <v>-3.824127051843039E-05</v>
       </c>
       <c r="D14">
-        <v>-3.824127051842926E-05</v>
+        <v>0.0009851134224001727</v>
       </c>
       <c r="E14">
-        <v>1.309209376322907</v>
+        <v>-3.824127051843039E-05</v>
       </c>
       <c r="F14">
-        <v>0.000985113422400172</v>
+        <v>1.309209376322906</v>
       </c>
       <c r="G14">
-        <v>1.089884389547287</v>
+        <v>0.3961782963993183</v>
       </c>
       <c r="H14">
         <v>0.0003874337007359263</v>
       </c>
       <c r="I14">
-        <v>0.3961782963993187</v>
+        <v>1.089884389547289</v>
       </c>
       <c r="J14">
-        <v>-3.824127051842926E-05</v>
+        <v>0.0009851134224001727</v>
       </c>
       <c r="K14">
-        <v>0.000985113422400172</v>
+        <v>0.0009851134224001727</v>
       </c>
       <c r="L14">
-        <v>1.309209376322907</v>
+        <v>1.309209376322906</v>
       </c>
       <c r="M14">
-        <v>0.6545855675261942</v>
+        <v>0.6545855675261937</v>
       </c>
       <c r="N14">
-        <v>0.6545855675261942</v>
+        <v>0.6545855675261937</v>
       </c>
       <c r="O14">
-        <v>0.4365195229177081</v>
+        <v>0.4365195229177077</v>
       </c>
       <c r="P14">
-        <v>0.4367187494915962</v>
+        <v>0.4367187494915958</v>
       </c>
       <c r="Q14">
-        <v>0.4367187494915962</v>
+        <v>0.4367187494915958</v>
       </c>
       <c r="R14">
-        <v>0.3277853404742972</v>
+        <v>0.3277853404742969</v>
       </c>
       <c r="S14">
-        <v>0.3277853404742972</v>
+        <v>0.3277853404742969</v>
       </c>
       <c r="T14">
-        <v>0.4661010613536884</v>
+        <v>0.4661010613536885</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>-0.0002872047814168314</v>
+      </c>
+      <c r="D15">
         <v>0.6404703130826073</v>
       </c>
-      <c r="D15">
-        <v>-0.0002872047814168316</v>
-      </c>
       <c r="E15">
+        <v>-0.0002872047814168314</v>
+      </c>
+      <c r="F15">
         <v>1.249658272177324</v>
       </c>
-      <c r="F15">
+      <c r="G15">
+        <v>2.268916713792476</v>
+      </c>
+      <c r="H15">
+        <v>0.002803107489512051</v>
+      </c>
+      <c r="I15">
+        <v>0.002043168524354677</v>
+      </c>
+      <c r="J15">
         <v>0.6404703130826073</v>
-      </c>
-      <c r="G15">
-        <v>0.002043168524354677</v>
-      </c>
-      <c r="H15">
-        <v>0.002803107489512052</v>
-      </c>
-      <c r="I15">
-        <v>2.268916713792476</v>
-      </c>
-      <c r="J15">
-        <v>-0.0002872047814168316</v>
       </c>
       <c r="K15">
         <v>0.6404703130826073</v>
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.00846407776164</v>
+        <v>2.903845245071521</v>
       </c>
       <c r="D16">
-        <v>1.031138069688351</v>
+        <v>1.958545245476558</v>
       </c>
       <c r="E16">
-        <v>0.990875926553519</v>
+        <v>2.903845245071521</v>
       </c>
       <c r="F16">
-        <v>1.00846407776164</v>
+        <v>1.572721085219117</v>
       </c>
       <c r="G16">
-        <v>1.03415501012983</v>
+        <v>0.3387228095437783</v>
       </c>
       <c r="H16">
-        <v>1.002512455826429</v>
+        <v>0.2406056362658782</v>
       </c>
       <c r="I16">
-        <v>1.000358629573475</v>
+        <v>4.268177722779184</v>
       </c>
       <c r="J16">
-        <v>1.031138069688351</v>
+        <v>1.958545245476558</v>
       </c>
       <c r="K16">
-        <v>1.00846407776164</v>
+        <v>1.958545245476558</v>
       </c>
       <c r="L16">
-        <v>0.990875926553519</v>
+        <v>1.572721085219117</v>
       </c>
       <c r="M16">
-        <v>1.011006998120935</v>
+        <v>2.238283165145319</v>
       </c>
       <c r="N16">
-        <v>1.011006998120935</v>
+        <v>2.238283165145319</v>
       </c>
       <c r="O16">
-        <v>1.008175484022766</v>
+        <v>1.572390655518839</v>
       </c>
       <c r="P16">
-        <v>1.01015935800117</v>
+        <v>2.145037191922398</v>
       </c>
       <c r="Q16">
-        <v>1.01015935800117</v>
+        <v>2.145037191922398</v>
       </c>
       <c r="R16">
-        <v>1.009735537941288</v>
+        <v>2.098414205310938</v>
       </c>
       <c r="S16">
-        <v>1.009735537941288</v>
+        <v>2.098414205310938</v>
       </c>
       <c r="T16">
-        <v>1.011250694922208</v>
+        <v>1.880436290726006</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.041983523853957</v>
+        <v>2.210287888644283</v>
       </c>
       <c r="D17">
-        <v>0.9392753328647228</v>
+        <v>2.13958191603287</v>
       </c>
       <c r="E17">
-        <v>1.01335080087699</v>
+        <v>2.210287888644283</v>
       </c>
       <c r="F17">
-        <v>1.041983523853957</v>
+        <v>1.344573305334166</v>
       </c>
       <c r="G17">
-        <v>0.9354736755735485</v>
+        <v>0.5428977265837168</v>
       </c>
       <c r="H17">
-        <v>1.000888885386467</v>
+        <v>0.4469159499604074</v>
       </c>
       <c r="I17">
-        <v>0.996088436870512</v>
+        <v>3.141411989905885</v>
       </c>
       <c r="J17">
-        <v>0.9392753328647228</v>
+        <v>2.13958191603287</v>
       </c>
       <c r="K17">
-        <v>1.041983523853957</v>
+        <v>2.13958191603287</v>
       </c>
       <c r="L17">
-        <v>1.01335080087699</v>
+        <v>1.344573305334166</v>
       </c>
       <c r="M17">
-        <v>0.9763130668708564</v>
+        <v>1.777430596989225</v>
       </c>
       <c r="N17">
-        <v>0.9763130668708564</v>
+        <v>1.777430596989225</v>
       </c>
       <c r="O17">
-        <v>0.9845050063760598</v>
+        <v>1.333925714646285</v>
       </c>
       <c r="P17">
-        <v>0.9982032191985565</v>
+        <v>1.898147703337106</v>
       </c>
       <c r="Q17">
-        <v>0.9982032191985565</v>
+        <v>1.898147703337107</v>
       </c>
       <c r="R17">
-        <v>1.009148295362407</v>
+        <v>1.958506256511047</v>
       </c>
       <c r="S17">
-        <v>1.009148295362407</v>
+        <v>1.958506256511047</v>
       </c>
       <c r="T17">
-        <v>0.9878434425710326</v>
+        <v>1.637611462743555</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.073391139703798</v>
+        <v>0.8422099401887639</v>
       </c>
       <c r="D18">
-        <v>1.093415462203176</v>
+        <v>2.477296263536014</v>
       </c>
       <c r="E18">
-        <v>1.027181740133787</v>
+        <v>0.8422099401887639</v>
       </c>
       <c r="F18">
-        <v>1.073391139703798</v>
+        <v>0.8765775448295993</v>
       </c>
       <c r="G18">
-        <v>1.270726086653936</v>
+        <v>0.9362333454161685</v>
       </c>
       <c r="H18">
-        <v>1.018729694742852</v>
+        <v>0.8560224285443456</v>
       </c>
       <c r="I18">
-        <v>0.9980522778935986</v>
+        <v>0.8770336424516101</v>
       </c>
       <c r="J18">
-        <v>1.093415462203176</v>
+        <v>2.477296263536014</v>
       </c>
       <c r="K18">
-        <v>1.073391139703798</v>
+        <v>2.477296263536014</v>
       </c>
       <c r="L18">
-        <v>1.027181740133787</v>
+        <v>0.8765775448295993</v>
       </c>
       <c r="M18">
-        <v>1.060298601168482</v>
+        <v>0.8593937425091815</v>
       </c>
       <c r="N18">
-        <v>1.060298601168482</v>
+        <v>0.8593937425091815</v>
       </c>
       <c r="O18">
-        <v>1.046442299026605</v>
+        <v>0.8582699711875695</v>
       </c>
       <c r="P18">
-        <v>1.064662780680254</v>
+        <v>1.398694582851459</v>
       </c>
       <c r="Q18">
-        <v>1.064662780680254</v>
+        <v>1.398694582851459</v>
       </c>
       <c r="R18">
-        <v>1.06684487043614</v>
+        <v>1.668345003022598</v>
       </c>
       <c r="S18">
-        <v>1.06684487043614</v>
+        <v>1.668345003022598</v>
       </c>
       <c r="T18">
-        <v>1.080249400221858</v>
+        <v>1.14422886082775</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9697764914586564</v>
+      </c>
+      <c r="D19">
+        <v>3.108533394725944</v>
+      </c>
+      <c r="E19">
+        <v>0.9697764914586564</v>
+      </c>
+      <c r="F19">
+        <v>0.8370366925024544</v>
+      </c>
+      <c r="G19">
+        <v>0.9227839564303938</v>
+      </c>
+      <c r="H19">
+        <v>0.8596640544975267</v>
+      </c>
+      <c r="I19">
+        <v>0.8389161273826811</v>
+      </c>
+      <c r="J19">
+        <v>3.108533394725944</v>
+      </c>
+      <c r="K19">
+        <v>3.108533394725944</v>
+      </c>
+      <c r="L19">
+        <v>0.8370366925024544</v>
+      </c>
+      <c r="M19">
+        <v>0.9034065919805554</v>
+      </c>
+      <c r="N19">
+        <v>0.9034065919805554</v>
+      </c>
+      <c r="O19">
+        <v>0.8888257461528791</v>
+      </c>
+      <c r="P19">
+        <v>1.638448859562352</v>
+      </c>
+      <c r="Q19">
+        <v>1.638448859562352</v>
+      </c>
+      <c r="R19">
+        <v>2.00596999335325</v>
+      </c>
+      <c r="S19">
+        <v>2.00596999335325</v>
+      </c>
+      <c r="T19">
+        <v>1.256118452832943</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.031138069688352</v>
+      </c>
+      <c r="D20">
+        <v>1.008464077761641</v>
+      </c>
+      <c r="E20">
+        <v>1.031138069688352</v>
+      </c>
+      <c r="F20">
+        <v>0.9908759265535202</v>
+      </c>
+      <c r="G20">
+        <v>1.000358629573474</v>
+      </c>
+      <c r="H20">
+        <v>1.002512455826429</v>
+      </c>
+      <c r="I20">
+        <v>1.034155010129832</v>
+      </c>
+      <c r="J20">
+        <v>1.008464077761641</v>
+      </c>
+      <c r="K20">
+        <v>1.008464077761641</v>
+      </c>
+      <c r="L20">
+        <v>0.9908759265535202</v>
+      </c>
+      <c r="M20">
+        <v>1.011006998120936</v>
+      </c>
+      <c r="N20">
+        <v>1.011006998120936</v>
+      </c>
+      <c r="O20">
+        <v>1.008175484022767</v>
+      </c>
+      <c r="P20">
+        <v>1.010159358001171</v>
+      </c>
+      <c r="Q20">
+        <v>1.010159358001171</v>
+      </c>
+      <c r="R20">
+        <v>1.009735537941288</v>
+      </c>
+      <c r="S20">
+        <v>1.009735537941288</v>
+      </c>
+      <c r="T20">
+        <v>1.011250694922208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9392753328647234</v>
+      </c>
+      <c r="D21">
+        <v>1.041983523853957</v>
+      </c>
+      <c r="E21">
+        <v>0.9392753328647234</v>
+      </c>
+      <c r="F21">
+        <v>1.013350800876991</v>
+      </c>
+      <c r="G21">
+        <v>0.9960884368705112</v>
+      </c>
+      <c r="H21">
+        <v>1.000888885386465</v>
+      </c>
+      <c r="I21">
+        <v>0.9354736755735502</v>
+      </c>
+      <c r="J21">
+        <v>1.041983523853957</v>
+      </c>
+      <c r="K21">
+        <v>1.041983523853957</v>
+      </c>
+      <c r="L21">
+        <v>1.013350800876991</v>
+      </c>
+      <c r="M21">
+        <v>0.9763130668708572</v>
+      </c>
+      <c r="N21">
+        <v>0.9763130668708572</v>
+      </c>
+      <c r="O21">
+        <v>0.98450500637606</v>
+      </c>
+      <c r="P21">
+        <v>0.9982032191985569</v>
+      </c>
+      <c r="Q21">
+        <v>0.9982032191985569</v>
+      </c>
+      <c r="R21">
+        <v>1.009148295362407</v>
+      </c>
+      <c r="S21">
+        <v>1.009148295362407</v>
+      </c>
+      <c r="T21">
+        <v>0.987843442571033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.093415462203179</v>
+      </c>
+      <c r="D22">
+        <v>1.073391139703799</v>
+      </c>
+      <c r="E22">
+        <v>1.093415462203179</v>
+      </c>
+      <c r="F22">
+        <v>1.027181740133788</v>
+      </c>
+      <c r="G22">
+        <v>0.9980522778935983</v>
+      </c>
+      <c r="H22">
+        <v>1.018729694742852</v>
+      </c>
+      <c r="I22">
+        <v>1.270726086653939</v>
+      </c>
+      <c r="J22">
+        <v>1.073391139703799</v>
+      </c>
+      <c r="K22">
+        <v>1.073391139703799</v>
+      </c>
+      <c r="L22">
+        <v>1.027181740133788</v>
+      </c>
+      <c r="M22">
+        <v>1.060298601168483</v>
+      </c>
+      <c r="N22">
+        <v>1.060298601168483</v>
+      </c>
+      <c r="O22">
+        <v>1.046442299026606</v>
+      </c>
+      <c r="P22">
+        <v>1.064662780680255</v>
+      </c>
+      <c r="Q22">
+        <v>1.064662780680255</v>
+      </c>
+      <c r="R22">
+        <v>1.066844870436141</v>
+      </c>
+      <c r="S22">
+        <v>1.066844870436141</v>
+      </c>
+      <c r="T22">
+        <v>1.080249400221859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.735676444818944</v>
+      </c>
+      <c r="D23">
         <v>1.032145961755988</v>
       </c>
-      <c r="D19">
-        <v>1.735676444818943</v>
-      </c>
-      <c r="E19">
+      <c r="E23">
+        <v>1.735676444818944</v>
+      </c>
+      <c r="F23">
         <v>1.151630798566349</v>
       </c>
-      <c r="F19">
+      <c r="G23">
+        <v>1.057636092121319</v>
+      </c>
+      <c r="H23">
+        <v>0.9550907031169384</v>
+      </c>
+      <c r="I23">
+        <v>1.411558137575153</v>
+      </c>
+      <c r="J23">
         <v>1.032145961755988</v>
       </c>
-      <c r="G19">
-        <v>1.411558137575153</v>
-      </c>
-      <c r="H19">
-        <v>0.9550907031169384</v>
-      </c>
-      <c r="I19">
-        <v>1.057636092121319</v>
-      </c>
-      <c r="J19">
-        <v>1.735676444818943</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.032145961755988</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.151630798566349</v>
       </c>
-      <c r="M19">
-        <v>1.443653621692646</v>
-      </c>
-      <c r="N19">
-        <v>1.443653621692646</v>
-      </c>
-      <c r="O19">
+      <c r="M23">
+        <v>1.443653621692647</v>
+      </c>
+      <c r="N23">
+        <v>1.443653621692647</v>
+      </c>
+      <c r="O23">
         <v>1.280799315500744</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.30648440171376</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.30648440171376</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.237899791724317</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.237899791724317</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.223956356325782</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/RGossF-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW05.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.13812583407412</v>
+        <v>0.9489161448491406</v>
       </c>
       <c r="D3">
-        <v>1.074322521749746</v>
+        <v>3.16238014435602</v>
       </c>
       <c r="E3">
-        <v>1.13812583407412</v>
+        <v>0.9489161448491406</v>
       </c>
       <c r="F3">
-        <v>1.028371664848311</v>
+        <v>0.8762275241536016</v>
       </c>
       <c r="G3">
-        <v>0.9594495978048744</v>
+        <v>0.8979585794831105</v>
       </c>
       <c r="H3">
-        <v>0.9625741815834203</v>
+        <v>0.8559027991708632</v>
       </c>
       <c r="I3">
-        <v>1.18952273199042</v>
+        <v>0.9569372879837102</v>
       </c>
       <c r="J3">
-        <v>1.074322521749746</v>
+        <v>3.16238014435602</v>
       </c>
       <c r="K3">
-        <v>1.074322521749746</v>
+        <v>3.16238014435602</v>
       </c>
       <c r="L3">
-        <v>1.028371664848311</v>
+        <v>0.8762275241536016</v>
       </c>
       <c r="M3">
-        <v>1.083248749461216</v>
+        <v>0.9125718345013711</v>
       </c>
       <c r="N3">
-        <v>1.083248749461216</v>
+        <v>0.9125718345013711</v>
       </c>
       <c r="O3">
-        <v>1.04302389350195</v>
+        <v>0.8936821560578685</v>
       </c>
       <c r="P3">
-        <v>1.080273340224059</v>
+        <v>1.662507937786254</v>
       </c>
       <c r="Q3">
-        <v>1.080273340224059</v>
+        <v>1.662507937786254</v>
       </c>
       <c r="R3">
-        <v>1.078785635605481</v>
+        <v>2.037475989428696</v>
       </c>
       <c r="S3">
-        <v>1.078785635605481</v>
+        <v>2.037475989428696</v>
       </c>
       <c r="T3">
-        <v>1.058727755341815</v>
+        <v>1.283053746666074</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.210728614005556</v>
+        <v>0.8852504374393704</v>
       </c>
       <c r="D4">
-        <v>1.101847130511523</v>
+        <v>2.782097470843486</v>
       </c>
       <c r="E4">
-        <v>1.210728614005556</v>
+        <v>0.8852504374393704</v>
       </c>
       <c r="F4">
-        <v>1.055484369385754</v>
+        <v>0.8824584268204954</v>
       </c>
       <c r="G4">
-        <v>0.9642660778151785</v>
+        <v>0.9271967170265872</v>
       </c>
       <c r="H4">
-        <v>0.9214055545644101</v>
+        <v>0.8609564398600071</v>
       </c>
       <c r="I4">
-        <v>1.4201230499714</v>
+        <v>0.9177889957073158</v>
       </c>
       <c r="J4">
-        <v>1.101847130511523</v>
+        <v>2.782097470843486</v>
       </c>
       <c r="K4">
-        <v>1.101847130511523</v>
+        <v>2.782097470843486</v>
       </c>
       <c r="L4">
-        <v>1.055484369385754</v>
+        <v>0.8824584268204954</v>
       </c>
       <c r="M4">
-        <v>1.133106491695655</v>
+        <v>0.8838544321299329</v>
       </c>
       <c r="N4">
-        <v>1.133106491695655</v>
+        <v>0.8838544321299329</v>
       </c>
       <c r="O4">
-        <v>1.062539512651907</v>
+        <v>0.8762217680399577</v>
       </c>
       <c r="P4">
-        <v>1.122686704634278</v>
+        <v>1.516602111701117</v>
       </c>
       <c r="Q4">
-        <v>1.122686704634278</v>
+        <v>1.516602111701117</v>
       </c>
       <c r="R4">
-        <v>1.117476811103589</v>
+        <v>1.832975951486709</v>
       </c>
       <c r="S4">
-        <v>1.117476811103589</v>
+        <v>1.832975951486709</v>
       </c>
       <c r="T4">
-        <v>1.11230913270897</v>
+        <v>1.20929141461621</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.746332711727221</v>
+        <v>1.054661421061154</v>
       </c>
       <c r="D5">
-        <v>1.271927119364566</v>
+        <v>4.030791449420379</v>
       </c>
       <c r="E5">
-        <v>1.746332711727221</v>
+        <v>1.054661421061154</v>
       </c>
       <c r="F5">
-        <v>1.411728094020053</v>
+        <v>0.8613573569527506</v>
       </c>
       <c r="G5">
-        <v>0.8703920673765215</v>
+        <v>0.8512634226203568</v>
       </c>
       <c r="H5">
-        <v>0.7492218577003725</v>
+        <v>0.8278260205934123</v>
       </c>
       <c r="I5">
-        <v>1.825014655592563</v>
+        <v>0.9842007915757307</v>
       </c>
       <c r="J5">
-        <v>1.271927119364566</v>
+        <v>4.030791449420379</v>
       </c>
       <c r="K5">
-        <v>1.271927119364566</v>
+        <v>4.030791449420379</v>
       </c>
       <c r="L5">
-        <v>1.411728094020053</v>
+        <v>0.8613573569527506</v>
       </c>
       <c r="M5">
-        <v>1.579030402873637</v>
+        <v>0.9580093890069521</v>
       </c>
       <c r="N5">
-        <v>1.579030402873637</v>
+        <v>0.9580093890069521</v>
       </c>
       <c r="O5">
-        <v>1.302427554482549</v>
+        <v>0.9146149328691054</v>
       </c>
       <c r="P5">
-        <v>1.476662641703947</v>
+        <v>1.982270075811428</v>
       </c>
       <c r="Q5">
-        <v>1.476662641703947</v>
+        <v>1.982270075811428</v>
       </c>
       <c r="R5">
-        <v>1.425478761119102</v>
+        <v>2.494400419213665</v>
       </c>
       <c r="S5">
-        <v>1.425478761119102</v>
+        <v>2.494400419213665</v>
       </c>
       <c r="T5">
-        <v>1.312436084296883</v>
+        <v>1.435016743703964</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3.278424772974699</v>
+        <v>1.797189462088296</v>
       </c>
       <c r="D6">
-        <v>2.163375059874473</v>
+        <v>5.503819968623016</v>
       </c>
       <c r="E6">
-        <v>3.278424772974699</v>
+        <v>1.797189462088296</v>
       </c>
       <c r="F6">
-        <v>0.7460549379795592</v>
+        <v>0.9743063123955684</v>
       </c>
       <c r="G6">
-        <v>1.076766166713142</v>
+        <v>0.7317435516723861</v>
       </c>
       <c r="H6">
-        <v>0.9097609234204282</v>
+        <v>1.012930975583113</v>
       </c>
       <c r="I6">
-        <v>2.211570024874084</v>
+        <v>0.920420392201591</v>
       </c>
       <c r="J6">
-        <v>2.163375059874473</v>
+        <v>5.503819968623016</v>
       </c>
       <c r="K6">
-        <v>2.163375059874473</v>
+        <v>5.503819968623016</v>
       </c>
       <c r="L6">
-        <v>0.7460549379795592</v>
+        <v>0.9743063123955684</v>
       </c>
       <c r="M6">
-        <v>2.012239855477129</v>
+        <v>1.385747887241932</v>
       </c>
       <c r="N6">
-        <v>2.012239855477129</v>
+        <v>1.385747887241932</v>
       </c>
       <c r="O6">
-        <v>1.644746878124895</v>
+        <v>1.261475583355659</v>
       </c>
       <c r="P6">
-        <v>2.06261825694291</v>
+        <v>2.758438581035627</v>
       </c>
       <c r="Q6">
-        <v>2.062618256942911</v>
+        <v>2.758438581035627</v>
       </c>
       <c r="R6">
-        <v>2.087807457675801</v>
+        <v>3.444783927932474</v>
       </c>
       <c r="S6">
-        <v>2.087807457675801</v>
+        <v>3.444783927932474</v>
       </c>
       <c r="T6">
-        <v>1.730991980972731</v>
+        <v>1.823401777093995</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9978198164643187</v>
+        <v>7.575368063578964</v>
       </c>
       <c r="D7">
-        <v>1.029843163347551</v>
+        <v>2.610181907332472</v>
       </c>
       <c r="E7">
-        <v>0.9978198164643187</v>
+        <v>7.575368063578964</v>
       </c>
       <c r="F7">
-        <v>0.998888359584849</v>
+        <v>0.001123107276331648</v>
       </c>
       <c r="G7">
-        <v>0.9989491750092826</v>
+        <v>0.005270549813523088</v>
       </c>
       <c r="H7">
-        <v>0.9985360803273202</v>
+        <v>3.785314881523612</v>
       </c>
       <c r="I7">
-        <v>0.9994401891882886</v>
+        <v>-0.001008965752727718</v>
       </c>
       <c r="J7">
-        <v>1.029843163347551</v>
+        <v>2.610181907332472</v>
       </c>
       <c r="K7">
-        <v>1.029843163347551</v>
+        <v>2.610181907332472</v>
       </c>
       <c r="L7">
-        <v>0.998888359584849</v>
+        <v>0.001123107276331648</v>
       </c>
       <c r="M7">
-        <v>0.9983540880245838</v>
+        <v>3.788245585427648</v>
       </c>
       <c r="N7">
-        <v>0.9983540880245838</v>
+        <v>3.788245585427648</v>
       </c>
       <c r="O7">
-        <v>0.9984147521254959</v>
+        <v>3.787268684126303</v>
       </c>
       <c r="P7">
-        <v>1.008850446465573</v>
+        <v>3.395557692729256</v>
       </c>
       <c r="Q7">
-        <v>1.008850446465573</v>
+        <v>3.395557692729256</v>
       </c>
       <c r="R7">
-        <v>1.014098625686067</v>
+        <v>3.19921374638006</v>
       </c>
       <c r="S7">
-        <v>1.014098625686067</v>
+        <v>3.19921374638006</v>
       </c>
       <c r="T7">
-        <v>1.003912797320268</v>
+        <v>2.32937492396203</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9819980349542811</v>
+        <v>7.534309376696232</v>
       </c>
       <c r="D8">
-        <v>1.078711463388967</v>
+        <v>2.743938715707924</v>
       </c>
       <c r="E8">
-        <v>0.9819980349542811</v>
+        <v>7.534309376696232</v>
       </c>
       <c r="F8">
-        <v>0.9971302055268662</v>
+        <v>0.001114398941928359</v>
       </c>
       <c r="G8">
-        <v>0.9968328938724924</v>
+        <v>0.005261557470809857</v>
       </c>
       <c r="H8">
-        <v>0.9957750383952585</v>
+        <v>3.763557524067827</v>
       </c>
       <c r="I8">
-        <v>0.9954523726943254</v>
+        <v>-0.001036395617686015</v>
       </c>
       <c r="J8">
-        <v>1.078711463388967</v>
+        <v>2.743938715707924</v>
       </c>
       <c r="K8">
-        <v>1.078711463388967</v>
+        <v>2.743938715707924</v>
       </c>
       <c r="L8">
-        <v>0.9971302055268662</v>
+        <v>0.001114398941928359</v>
       </c>
       <c r="M8">
-        <v>0.9895641202405736</v>
+        <v>3.76771188781908</v>
       </c>
       <c r="N8">
-        <v>0.9895641202405736</v>
+        <v>3.76771188781908</v>
       </c>
       <c r="O8">
-        <v>0.9916344262921353</v>
+        <v>3.766327099901996</v>
       </c>
       <c r="P8">
-        <v>1.019279901290038</v>
+        <v>3.426454163782028</v>
       </c>
       <c r="Q8">
-        <v>1.019279901290038</v>
+        <v>3.426454163782028</v>
       </c>
       <c r="R8">
-        <v>1.034137791814771</v>
+        <v>3.255825301763502</v>
       </c>
       <c r="S8">
-        <v>1.034137791814771</v>
+        <v>3.255825301763502</v>
       </c>
       <c r="T8">
-        <v>1.007650001472032</v>
+        <v>2.341190862877839</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.031945232691077</v>
+        <v>7.507527580204478</v>
       </c>
       <c r="D9">
-        <v>1.111478133304049</v>
+        <v>2.866077410214564</v>
       </c>
       <c r="E9">
-        <v>1.031945232691077</v>
+        <v>7.507527580204478</v>
       </c>
       <c r="F9">
-        <v>0.9852810997380727</v>
+        <v>0.001104095466193667</v>
       </c>
       <c r="G9">
-        <v>1.0014586231768</v>
+        <v>0.005248160297158012</v>
       </c>
       <c r="H9">
-        <v>0.9901247052543173</v>
+        <v>3.746805521131029</v>
       </c>
       <c r="I9">
-        <v>0.9733221962586378</v>
+        <v>-0.001051351612582998</v>
       </c>
       <c r="J9">
-        <v>1.111478133304049</v>
+        <v>2.866077410214564</v>
       </c>
       <c r="K9">
-        <v>1.111478133304049</v>
+        <v>2.866077410214564</v>
       </c>
       <c r="L9">
-        <v>0.9852810997380727</v>
+        <v>0.001104095466193667</v>
       </c>
       <c r="M9">
-        <v>1.008613166214575</v>
+        <v>3.754315837835336</v>
       </c>
       <c r="N9">
-        <v>1.008613166214575</v>
+        <v>3.754315837835336</v>
       </c>
       <c r="O9">
-        <v>1.002450345894489</v>
+        <v>3.7518123989339</v>
       </c>
       <c r="P9">
-        <v>1.042901488577733</v>
+        <v>3.458236361961745</v>
       </c>
       <c r="Q9">
-        <v>1.042901488577733</v>
+        <v>3.458236361961745</v>
       </c>
       <c r="R9">
-        <v>1.060045649759312</v>
+        <v>3.31019662402495</v>
       </c>
       <c r="S9">
-        <v>1.060045649759312</v>
+        <v>3.31019662402495</v>
       </c>
       <c r="T9">
-        <v>1.015601665070492</v>
+        <v>2.35428523595014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.027160859135486</v>
+        <v>7.402946431465435</v>
       </c>
       <c r="D10">
-        <v>1.24660084764939</v>
+        <v>3.338882836147323</v>
       </c>
       <c r="E10">
-        <v>1.027160859135486</v>
+        <v>7.402946431465435</v>
       </c>
       <c r="F10">
-        <v>0.9860275616243577</v>
+        <v>0.001063146076665045</v>
       </c>
       <c r="G10">
-        <v>0.9914481327333448</v>
+        <v>0.005195550182250639</v>
       </c>
       <c r="H10">
-        <v>0.9793326486777579</v>
+        <v>3.686398519562974</v>
       </c>
       <c r="I10">
-        <v>0.9678202625954544</v>
+        <v>-0.001090636759033652</v>
       </c>
       <c r="J10">
-        <v>1.24660084764939</v>
+        <v>3.338882836147323</v>
       </c>
       <c r="K10">
-        <v>1.24660084764939</v>
+        <v>3.338882836147323</v>
       </c>
       <c r="L10">
-        <v>0.9860275616243577</v>
+        <v>0.001063146076665045</v>
       </c>
       <c r="M10">
-        <v>1.006594210379922</v>
+        <v>3.70200478877105</v>
       </c>
       <c r="N10">
-        <v>1.006594210379922</v>
+        <v>3.70200478877105</v>
       </c>
       <c r="O10">
-        <v>0.9975070231458671</v>
+        <v>3.696802699035024</v>
       </c>
       <c r="P10">
-        <v>1.086596422803078</v>
+        <v>3.580964137896474</v>
       </c>
       <c r="Q10">
-        <v>1.086596422803078</v>
+        <v>3.580964137896474</v>
       </c>
       <c r="R10">
-        <v>1.126597529014656</v>
+        <v>3.520443812459187</v>
       </c>
       <c r="S10">
-        <v>1.126597529014656</v>
+        <v>3.520443812459187</v>
       </c>
       <c r="T10">
-        <v>1.033065052069299</v>
+        <v>2.405565974445935</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.424673424588713</v>
+        <v>1.113441287860716</v>
       </c>
       <c r="D11">
-        <v>1.502673962582817</v>
+        <v>1.032768272421137</v>
       </c>
       <c r="E11">
-        <v>1.424673424588713</v>
+        <v>1.113441287860716</v>
       </c>
       <c r="F11">
-        <v>0.8888749234921016</v>
+        <v>1.027234540520978</v>
       </c>
       <c r="G11">
-        <v>1.000393184592135</v>
+        <v>0.9623057692794994</v>
       </c>
       <c r="H11">
-        <v>1.071269861644135</v>
+        <v>0.9684987115197976</v>
       </c>
       <c r="I11">
-        <v>0.7780666993137296</v>
+        <v>1.174083071690662</v>
       </c>
       <c r="J11">
-        <v>1.502673962582817</v>
+        <v>1.032768272421137</v>
       </c>
       <c r="K11">
-        <v>1.502673962582817</v>
+        <v>1.032768272421137</v>
       </c>
       <c r="L11">
-        <v>0.8888749234921016</v>
+        <v>1.027234540520978</v>
       </c>
       <c r="M11">
-        <v>1.156774174040407</v>
+        <v>1.070337914190847</v>
       </c>
       <c r="N11">
-        <v>1.156774174040407</v>
+        <v>1.070337914190847</v>
       </c>
       <c r="O11">
-        <v>1.128272736574983</v>
+        <v>1.036391513300497</v>
       </c>
       <c r="P11">
-        <v>1.272074103554544</v>
+        <v>1.05781470026761</v>
       </c>
       <c r="Q11">
-        <v>1.272074103554544</v>
+        <v>1.05781470026761</v>
       </c>
       <c r="R11">
-        <v>1.329724068311612</v>
+        <v>1.051553093305992</v>
       </c>
       <c r="S11">
-        <v>1.329724068311612</v>
+        <v>1.051553093305992</v>
       </c>
       <c r="T11">
-        <v>1.110992009368939</v>
+        <v>1.046388608882131</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.002303868019616867</v>
+        <v>1.091644722305398</v>
       </c>
       <c r="D12">
-        <v>0.04323703425391151</v>
+        <v>1.035787370234596</v>
       </c>
       <c r="E12">
-        <v>0.002303868019616867</v>
+        <v>1.091644722305398</v>
       </c>
       <c r="F12">
-        <v>1.478040375546567</v>
+        <v>1.011926639490285</v>
       </c>
       <c r="G12">
-        <v>1.437118756671864</v>
+        <v>0.9755266143580531</v>
       </c>
       <c r="H12">
-        <v>0.7438671392546323</v>
+        <v>0.9887238339588994</v>
       </c>
       <c r="I12">
-        <v>0.04493336651283093</v>
+        <v>1.089379922716381</v>
       </c>
       <c r="J12">
-        <v>0.04323703425391151</v>
+        <v>1.035787370234596</v>
       </c>
       <c r="K12">
-        <v>0.04323703425391151</v>
+        <v>1.035787370234596</v>
       </c>
       <c r="L12">
-        <v>1.478040375546567</v>
+        <v>1.011926639490285</v>
       </c>
       <c r="M12">
-        <v>0.7401721217830917</v>
+        <v>1.051785680897841</v>
       </c>
       <c r="N12">
-        <v>0.7401721217830917</v>
+        <v>1.051785680897841</v>
       </c>
       <c r="O12">
-        <v>0.7414037942736051</v>
+        <v>1.030765065251527</v>
       </c>
       <c r="P12">
-        <v>0.5078604259400316</v>
+        <v>1.046452910676759</v>
       </c>
       <c r="Q12">
-        <v>0.5078604259400317</v>
+        <v>1.046452910676759</v>
       </c>
       <c r="R12">
-        <v>0.3917045780185016</v>
+        <v>1.043786525566219</v>
       </c>
       <c r="S12">
-        <v>0.3917045780185016</v>
+        <v>1.043786525566219</v>
       </c>
       <c r="T12">
-        <v>0.6249167567099038</v>
+        <v>1.032164850510602</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.359723982081754</v>
+        <v>1.379672737399771</v>
       </c>
       <c r="D13">
-        <v>2.195642819680752</v>
+        <v>1.133943802734015</v>
       </c>
       <c r="E13">
-        <v>2.359723982081754</v>
+        <v>1.379672737399771</v>
       </c>
       <c r="F13">
-        <v>0.06129398204745091</v>
+        <v>1.04763535352762</v>
       </c>
       <c r="G13">
-        <v>0.4768826445781505</v>
+        <v>0.9434427465987698</v>
       </c>
       <c r="H13">
-        <v>1.253314960072906</v>
+        <v>0.9576066093072582</v>
       </c>
       <c r="I13">
-        <v>2.989604547419955</v>
+        <v>1.269700824078864</v>
       </c>
       <c r="J13">
-        <v>2.195642819680752</v>
+        <v>1.133943802734015</v>
       </c>
       <c r="K13">
-        <v>2.195642819680752</v>
+        <v>1.133943802734015</v>
       </c>
       <c r="L13">
-        <v>0.06129398204745091</v>
+        <v>1.04763535352762</v>
       </c>
       <c r="M13">
-        <v>1.210508982064603</v>
+        <v>1.213654045463695</v>
       </c>
       <c r="N13">
-        <v>1.210508982064603</v>
+        <v>1.213654045463695</v>
       </c>
       <c r="O13">
-        <v>1.224777641400704</v>
+        <v>1.128304900078216</v>
       </c>
       <c r="P13">
-        <v>1.538886927936653</v>
+        <v>1.187083964553802</v>
       </c>
       <c r="Q13">
-        <v>1.538886927936652</v>
+        <v>1.187083964553802</v>
       </c>
       <c r="R13">
-        <v>1.703075900872677</v>
+        <v>1.173798924098855</v>
       </c>
       <c r="S13">
-        <v>1.703075900872677</v>
+        <v>1.173798924098855</v>
       </c>
       <c r="T13">
-        <v>1.556077155980161</v>
+        <v>1.122000345607716</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-3.824127051843039E-05</v>
+        <v>2.030916236780552</v>
       </c>
       <c r="D14">
-        <v>0.0009851134224001727</v>
+        <v>1.715729798940403</v>
       </c>
       <c r="E14">
-        <v>-3.824127051843039E-05</v>
+        <v>2.030916236780552</v>
       </c>
       <c r="F14">
-        <v>1.309209376322906</v>
+        <v>1.306712495100772</v>
       </c>
       <c r="G14">
-        <v>0.3961782963993183</v>
+        <v>0.8460152634879213</v>
       </c>
       <c r="H14">
-        <v>0.0003874337007359263</v>
+        <v>1.068602814114709</v>
       </c>
       <c r="I14">
-        <v>1.089884389547289</v>
+        <v>1.401492816878198</v>
       </c>
       <c r="J14">
-        <v>0.0009851134224001727</v>
+        <v>1.715729798940403</v>
       </c>
       <c r="K14">
-        <v>0.0009851134224001727</v>
+        <v>1.715729798940403</v>
       </c>
       <c r="L14">
-        <v>1.309209376322906</v>
+        <v>1.306712495100772</v>
       </c>
       <c r="M14">
-        <v>0.6545855675261937</v>
+        <v>1.668814365940662</v>
       </c>
       <c r="N14">
-        <v>0.6545855675261937</v>
+        <v>1.668814365940662</v>
       </c>
       <c r="O14">
-        <v>0.4365195229177077</v>
+        <v>1.468743848665344</v>
       </c>
       <c r="P14">
-        <v>0.4367187494915958</v>
+        <v>1.684452843607242</v>
       </c>
       <c r="Q14">
-        <v>0.4367187494915958</v>
+        <v>1.684452843607242</v>
       </c>
       <c r="R14">
-        <v>0.3277853404742969</v>
+        <v>1.692272082440532</v>
       </c>
       <c r="S14">
-        <v>0.3277853404742969</v>
+        <v>1.692272082440532</v>
       </c>
       <c r="T14">
-        <v>0.4661010613536885</v>
+        <v>1.394911570883759</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.0002872047814168314</v>
+        <v>1.13812583407412</v>
       </c>
       <c r="D15">
-        <v>0.6404703130826073</v>
+        <v>1.074322521749746</v>
       </c>
       <c r="E15">
-        <v>-0.0002872047814168314</v>
+        <v>1.13812583407412</v>
       </c>
       <c r="F15">
-        <v>1.249658272177324</v>
+        <v>1.028371664848311</v>
       </c>
       <c r="G15">
-        <v>2.268916713792476</v>
+        <v>0.9594495978048744</v>
       </c>
       <c r="H15">
-        <v>0.002803107489512051</v>
+        <v>0.9625741815834203</v>
       </c>
       <c r="I15">
-        <v>0.002043168524354677</v>
+        <v>1.18952273199042</v>
       </c>
       <c r="J15">
-        <v>0.6404703130826073</v>
+        <v>1.074322521749746</v>
       </c>
       <c r="K15">
-        <v>0.6404703130826073</v>
+        <v>1.074322521749746</v>
       </c>
       <c r="L15">
-        <v>1.249658272177324</v>
+        <v>1.028371664848311</v>
       </c>
       <c r="M15">
-        <v>0.6246855336979534</v>
+        <v>1.083248749461216</v>
       </c>
       <c r="N15">
-        <v>0.6246855336979534</v>
+        <v>1.083248749461216</v>
       </c>
       <c r="O15">
-        <v>0.417391391628473</v>
+        <v>1.04302389350195</v>
       </c>
       <c r="P15">
-        <v>0.6299471268261714</v>
+        <v>1.080273340224059</v>
       </c>
       <c r="Q15">
-        <v>0.6299471268261714</v>
+        <v>1.080273340224059</v>
       </c>
       <c r="R15">
-        <v>0.6325779233902804</v>
+        <v>1.078785635605481</v>
       </c>
       <c r="S15">
-        <v>0.6325779233902804</v>
+        <v>1.078785635605481</v>
       </c>
       <c r="T15">
-        <v>0.6939340617141428</v>
+        <v>1.058727755341815</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.903845245071521</v>
+        <v>1.210728614005556</v>
       </c>
       <c r="D16">
-        <v>1.958545245476558</v>
+        <v>1.101847130511523</v>
       </c>
       <c r="E16">
-        <v>2.903845245071521</v>
+        <v>1.210728614005556</v>
       </c>
       <c r="F16">
-        <v>1.572721085219117</v>
+        <v>1.055484369385754</v>
       </c>
       <c r="G16">
-        <v>0.3387228095437783</v>
+        <v>0.9642660778151785</v>
       </c>
       <c r="H16">
-        <v>0.2406056362658782</v>
+        <v>0.9214055545644101</v>
       </c>
       <c r="I16">
-        <v>4.268177722779184</v>
+        <v>1.4201230499714</v>
       </c>
       <c r="J16">
-        <v>1.958545245476558</v>
+        <v>1.101847130511523</v>
       </c>
       <c r="K16">
-        <v>1.958545245476558</v>
+        <v>1.101847130511523</v>
       </c>
       <c r="L16">
-        <v>1.572721085219117</v>
+        <v>1.055484369385754</v>
       </c>
       <c r="M16">
-        <v>2.238283165145319</v>
+        <v>1.133106491695655</v>
       </c>
       <c r="N16">
-        <v>2.238283165145319</v>
+        <v>1.133106491695655</v>
       </c>
       <c r="O16">
-        <v>1.572390655518839</v>
+        <v>1.062539512651907</v>
       </c>
       <c r="P16">
-        <v>2.145037191922398</v>
+        <v>1.122686704634278</v>
       </c>
       <c r="Q16">
-        <v>2.145037191922398</v>
+        <v>1.122686704634278</v>
       </c>
       <c r="R16">
-        <v>2.098414205310938</v>
+        <v>1.117476811103589</v>
       </c>
       <c r="S16">
-        <v>2.098414205310938</v>
+        <v>1.117476811103589</v>
       </c>
       <c r="T16">
-        <v>1.880436290726006</v>
+        <v>1.11230913270897</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2.210287888644283</v>
+        <v>1.746332711727221</v>
       </c>
       <c r="D17">
-        <v>2.13958191603287</v>
+        <v>1.271927119364566</v>
       </c>
       <c r="E17">
-        <v>2.210287888644283</v>
+        <v>1.746332711727221</v>
       </c>
       <c r="F17">
-        <v>1.344573305334166</v>
+        <v>1.411728094020053</v>
       </c>
       <c r="G17">
-        <v>0.5428977265837168</v>
+        <v>0.8703920673765215</v>
       </c>
       <c r="H17">
-        <v>0.4469159499604074</v>
+        <v>0.7492218577003725</v>
       </c>
       <c r="I17">
-        <v>3.141411989905885</v>
+        <v>1.825014655592563</v>
       </c>
       <c r="J17">
-        <v>2.13958191603287</v>
+        <v>1.271927119364566</v>
       </c>
       <c r="K17">
-        <v>2.13958191603287</v>
+        <v>1.271927119364566</v>
       </c>
       <c r="L17">
-        <v>1.344573305334166</v>
+        <v>1.411728094020053</v>
       </c>
       <c r="M17">
-        <v>1.777430596989225</v>
+        <v>1.579030402873637</v>
       </c>
       <c r="N17">
-        <v>1.777430596989225</v>
+        <v>1.579030402873637</v>
       </c>
       <c r="O17">
-        <v>1.333925714646285</v>
+        <v>1.302427554482549</v>
       </c>
       <c r="P17">
-        <v>1.898147703337106</v>
+        <v>1.476662641703947</v>
       </c>
       <c r="Q17">
-        <v>1.898147703337107</v>
+        <v>1.476662641703947</v>
       </c>
       <c r="R17">
-        <v>1.958506256511047</v>
+        <v>1.425478761119102</v>
       </c>
       <c r="S17">
-        <v>1.958506256511047</v>
+        <v>1.425478761119102</v>
       </c>
       <c r="T17">
-        <v>1.637611462743555</v>
+        <v>1.312436084296883</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8422099401887639</v>
+        <v>3.278424772974699</v>
       </c>
       <c r="D18">
-        <v>2.477296263536014</v>
+        <v>2.163375059874473</v>
       </c>
       <c r="E18">
-        <v>0.8422099401887639</v>
+        <v>3.278424772974699</v>
       </c>
       <c r="F18">
-        <v>0.8765775448295993</v>
+        <v>0.7460549379795592</v>
       </c>
       <c r="G18">
-        <v>0.9362333454161685</v>
+        <v>1.076766166713142</v>
       </c>
       <c r="H18">
-        <v>0.8560224285443456</v>
+        <v>0.9097609234204282</v>
       </c>
       <c r="I18">
-        <v>0.8770336424516101</v>
+        <v>2.211570024874084</v>
       </c>
       <c r="J18">
-        <v>2.477296263536014</v>
+        <v>2.163375059874473</v>
       </c>
       <c r="K18">
-        <v>2.477296263536014</v>
+        <v>2.163375059874473</v>
       </c>
       <c r="L18">
-        <v>0.8765775448295993</v>
+        <v>0.7460549379795592</v>
       </c>
       <c r="M18">
-        <v>0.8593937425091815</v>
+        <v>2.012239855477129</v>
       </c>
       <c r="N18">
-        <v>0.8593937425091815</v>
+        <v>2.012239855477129</v>
       </c>
       <c r="O18">
-        <v>0.8582699711875695</v>
+        <v>1.644746878124895</v>
       </c>
       <c r="P18">
-        <v>1.398694582851459</v>
+        <v>2.06261825694291</v>
       </c>
       <c r="Q18">
-        <v>1.398694582851459</v>
+        <v>2.062618256942911</v>
       </c>
       <c r="R18">
-        <v>1.668345003022598</v>
+        <v>2.087807457675801</v>
       </c>
       <c r="S18">
-        <v>1.668345003022598</v>
+        <v>2.087807457675801</v>
       </c>
       <c r="T18">
-        <v>1.14422886082775</v>
+        <v>1.730991980972731</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9697764914586564</v>
+        <v>0.9978198164643187</v>
       </c>
       <c r="D19">
-        <v>3.108533394725944</v>
+        <v>1.029843163347551</v>
       </c>
       <c r="E19">
-        <v>0.9697764914586564</v>
+        <v>0.9978198164643187</v>
       </c>
       <c r="F19">
-        <v>0.8370366925024544</v>
+        <v>0.998888359584849</v>
       </c>
       <c r="G19">
-        <v>0.9227839564303938</v>
+        <v>0.9989491750092826</v>
       </c>
       <c r="H19">
-        <v>0.8596640544975267</v>
+        <v>0.9985360803273202</v>
       </c>
       <c r="I19">
-        <v>0.8389161273826811</v>
+        <v>0.9994401891882886</v>
       </c>
       <c r="J19">
-        <v>3.108533394725944</v>
+        <v>1.029843163347551</v>
       </c>
       <c r="K19">
-        <v>3.108533394725944</v>
+        <v>1.029843163347551</v>
       </c>
       <c r="L19">
-        <v>0.8370366925024544</v>
+        <v>0.998888359584849</v>
       </c>
       <c r="M19">
-        <v>0.9034065919805554</v>
+        <v>0.9983540880245838</v>
       </c>
       <c r="N19">
-        <v>0.9034065919805554</v>
+        <v>0.9983540880245838</v>
       </c>
       <c r="O19">
-        <v>0.8888257461528791</v>
+        <v>0.9984147521254959</v>
       </c>
       <c r="P19">
-        <v>1.638448859562352</v>
+        <v>1.008850446465573</v>
       </c>
       <c r="Q19">
-        <v>1.638448859562352</v>
+        <v>1.008850446465573</v>
       </c>
       <c r="R19">
-        <v>2.00596999335325</v>
+        <v>1.014098625686067</v>
       </c>
       <c r="S19">
-        <v>2.00596999335325</v>
+        <v>1.014098625686067</v>
       </c>
       <c r="T19">
-        <v>1.256118452832943</v>
+        <v>1.003912797320268</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.031138069688352</v>
+        <v>0.9819980349542811</v>
       </c>
       <c r="D20">
-        <v>1.008464077761641</v>
+        <v>1.078711463388967</v>
       </c>
       <c r="E20">
-        <v>1.031138069688352</v>
+        <v>0.9819980349542811</v>
       </c>
       <c r="F20">
-        <v>0.9908759265535202</v>
+        <v>0.9971302055268662</v>
       </c>
       <c r="G20">
-        <v>1.000358629573474</v>
+        <v>0.9968328938724924</v>
       </c>
       <c r="H20">
-        <v>1.002512455826429</v>
+        <v>0.9957750383952585</v>
       </c>
       <c r="I20">
-        <v>1.034155010129832</v>
+        <v>0.9954523726943254</v>
       </c>
       <c r="J20">
-        <v>1.008464077761641</v>
+        <v>1.078711463388967</v>
       </c>
       <c r="K20">
-        <v>1.008464077761641</v>
+        <v>1.078711463388967</v>
       </c>
       <c r="L20">
-        <v>0.9908759265535202</v>
+        <v>0.9971302055268662</v>
       </c>
       <c r="M20">
-        <v>1.011006998120936</v>
+        <v>0.9895641202405736</v>
       </c>
       <c r="N20">
-        <v>1.011006998120936</v>
+        <v>0.9895641202405736</v>
       </c>
       <c r="O20">
-        <v>1.008175484022767</v>
+        <v>0.9916344262921353</v>
       </c>
       <c r="P20">
-        <v>1.010159358001171</v>
+        <v>1.019279901290038</v>
       </c>
       <c r="Q20">
-        <v>1.010159358001171</v>
+        <v>1.019279901290038</v>
       </c>
       <c r="R20">
-        <v>1.009735537941288</v>
+        <v>1.034137791814771</v>
       </c>
       <c r="S20">
-        <v>1.009735537941288</v>
+        <v>1.034137791814771</v>
       </c>
       <c r="T20">
-        <v>1.011250694922208</v>
+        <v>1.007650001472032</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9392753328647234</v>
+        <v>1.031945232691077</v>
       </c>
       <c r="D21">
-        <v>1.041983523853957</v>
+        <v>1.111478133304049</v>
       </c>
       <c r="E21">
-        <v>0.9392753328647234</v>
+        <v>1.031945232691077</v>
       </c>
       <c r="F21">
-        <v>1.013350800876991</v>
+        <v>0.9852810997380727</v>
       </c>
       <c r="G21">
-        <v>0.9960884368705112</v>
+        <v>1.0014586231768</v>
       </c>
       <c r="H21">
-        <v>1.000888885386465</v>
+        <v>0.9901247052543173</v>
       </c>
       <c r="I21">
-        <v>0.9354736755735502</v>
+        <v>0.9733221962586378</v>
       </c>
       <c r="J21">
-        <v>1.041983523853957</v>
+        <v>1.111478133304049</v>
       </c>
       <c r="K21">
-        <v>1.041983523853957</v>
+        <v>1.111478133304049</v>
       </c>
       <c r="L21">
-        <v>1.013350800876991</v>
+        <v>0.9852810997380727</v>
       </c>
       <c r="M21">
-        <v>0.9763130668708572</v>
+        <v>1.008613166214575</v>
       </c>
       <c r="N21">
-        <v>0.9763130668708572</v>
+        <v>1.008613166214575</v>
       </c>
       <c r="O21">
-        <v>0.98450500637606</v>
+        <v>1.002450345894489</v>
       </c>
       <c r="P21">
-        <v>0.9982032191985569</v>
+        <v>1.042901488577733</v>
       </c>
       <c r="Q21">
-        <v>0.9982032191985569</v>
+        <v>1.042901488577733</v>
       </c>
       <c r="R21">
-        <v>1.009148295362407</v>
+        <v>1.060045649759312</v>
       </c>
       <c r="S21">
-        <v>1.009148295362407</v>
+        <v>1.060045649759312</v>
       </c>
       <c r="T21">
-        <v>0.987843442571033</v>
+        <v>1.015601665070492</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.093415462203179</v>
+        <v>1.027160859135486</v>
       </c>
       <c r="D22">
-        <v>1.073391139703799</v>
+        <v>1.24660084764939</v>
       </c>
       <c r="E22">
-        <v>1.093415462203179</v>
+        <v>1.027160859135486</v>
       </c>
       <c r="F22">
-        <v>1.027181740133788</v>
+        <v>0.9860275616243577</v>
       </c>
       <c r="G22">
-        <v>0.9980522778935983</v>
+        <v>0.9914481327333448</v>
       </c>
       <c r="H22">
-        <v>1.018729694742852</v>
+        <v>0.9793326486777579</v>
       </c>
       <c r="I22">
-        <v>1.270726086653939</v>
+        <v>0.9678202625954544</v>
       </c>
       <c r="J22">
-        <v>1.073391139703799</v>
+        <v>1.24660084764939</v>
       </c>
       <c r="K22">
-        <v>1.073391139703799</v>
+        <v>1.24660084764939</v>
       </c>
       <c r="L22">
-        <v>1.027181740133788</v>
+        <v>0.9860275616243577</v>
       </c>
       <c r="M22">
-        <v>1.060298601168483</v>
+        <v>1.006594210379922</v>
       </c>
       <c r="N22">
-        <v>1.060298601168483</v>
+        <v>1.006594210379922</v>
       </c>
       <c r="O22">
-        <v>1.046442299026606</v>
+        <v>0.9975070231458671</v>
       </c>
       <c r="P22">
-        <v>1.064662780680255</v>
+        <v>1.086596422803078</v>
       </c>
       <c r="Q22">
-        <v>1.064662780680255</v>
+        <v>1.086596422803078</v>
       </c>
       <c r="R22">
-        <v>1.066844870436141</v>
+        <v>1.126597529014656</v>
       </c>
       <c r="S22">
-        <v>1.066844870436141</v>
+        <v>1.126597529014656</v>
       </c>
       <c r="T22">
-        <v>1.080249400221859</v>
+        <v>1.033065052069299</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.424673424588713</v>
+      </c>
+      <c r="D23">
+        <v>1.502673962582817</v>
+      </c>
+      <c r="E23">
+        <v>1.424673424588713</v>
+      </c>
+      <c r="F23">
+        <v>0.8888749234921016</v>
+      </c>
+      <c r="G23">
+        <v>1.000393184592135</v>
+      </c>
+      <c r="H23">
+        <v>1.071269861644135</v>
+      </c>
+      <c r="I23">
+        <v>0.7780666993137296</v>
+      </c>
+      <c r="J23">
+        <v>1.502673962582817</v>
+      </c>
+      <c r="K23">
+        <v>1.502673962582817</v>
+      </c>
+      <c r="L23">
+        <v>0.8888749234921016</v>
+      </c>
+      <c r="M23">
+        <v>1.156774174040407</v>
+      </c>
+      <c r="N23">
+        <v>1.156774174040407</v>
+      </c>
+      <c r="O23">
+        <v>1.128272736574983</v>
+      </c>
+      <c r="P23">
+        <v>1.272074103554544</v>
+      </c>
+      <c r="Q23">
+        <v>1.272074103554544</v>
+      </c>
+      <c r="R23">
+        <v>1.329724068311612</v>
+      </c>
+      <c r="S23">
+        <v>1.329724068311612</v>
+      </c>
+      <c r="T23">
+        <v>1.110992009368939</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.002303868019616867</v>
+      </c>
+      <c r="D24">
+        <v>0.04323703425391151</v>
+      </c>
+      <c r="E24">
+        <v>0.002303868019616867</v>
+      </c>
+      <c r="F24">
+        <v>1.478040375546567</v>
+      </c>
+      <c r="G24">
+        <v>1.437118756671864</v>
+      </c>
+      <c r="H24">
+        <v>0.7438671392546323</v>
+      </c>
+      <c r="I24">
+        <v>0.04493336651283093</v>
+      </c>
+      <c r="J24">
+        <v>0.04323703425391151</v>
+      </c>
+      <c r="K24">
+        <v>0.04323703425391151</v>
+      </c>
+      <c r="L24">
+        <v>1.478040375546567</v>
+      </c>
+      <c r="M24">
+        <v>0.7401721217830917</v>
+      </c>
+      <c r="N24">
+        <v>0.7401721217830917</v>
+      </c>
+      <c r="O24">
+        <v>0.7414037942736051</v>
+      </c>
+      <c r="P24">
+        <v>0.5078604259400316</v>
+      </c>
+      <c r="Q24">
+        <v>0.5078604259400317</v>
+      </c>
+      <c r="R24">
+        <v>0.3917045780185016</v>
+      </c>
+      <c r="S24">
+        <v>0.3917045780185016</v>
+      </c>
+      <c r="T24">
+        <v>0.6249167567099038</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>2.359723982081754</v>
+      </c>
+      <c r="D25">
+        <v>2.195642819680752</v>
+      </c>
+      <c r="E25">
+        <v>2.359723982081754</v>
+      </c>
+      <c r="F25">
+        <v>0.06129398204745091</v>
+      </c>
+      <c r="G25">
+        <v>0.4768826445781505</v>
+      </c>
+      <c r="H25">
+        <v>1.253314960072906</v>
+      </c>
+      <c r="I25">
+        <v>2.989604547419955</v>
+      </c>
+      <c r="J25">
+        <v>2.195642819680752</v>
+      </c>
+      <c r="K25">
+        <v>2.195642819680752</v>
+      </c>
+      <c r="L25">
+        <v>0.06129398204745091</v>
+      </c>
+      <c r="M25">
+        <v>1.210508982064603</v>
+      </c>
+      <c r="N25">
+        <v>1.210508982064603</v>
+      </c>
+      <c r="O25">
+        <v>1.224777641400704</v>
+      </c>
+      <c r="P25">
+        <v>1.538886927936653</v>
+      </c>
+      <c r="Q25">
+        <v>1.538886927936652</v>
+      </c>
+      <c r="R25">
+        <v>1.703075900872677</v>
+      </c>
+      <c r="S25">
+        <v>1.703075900872677</v>
+      </c>
+      <c r="T25">
+        <v>1.556077155980161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>-3.824127051843039E-05</v>
+      </c>
+      <c r="D26">
+        <v>0.0009851134224001727</v>
+      </c>
+      <c r="E26">
+        <v>-3.824127051843039E-05</v>
+      </c>
+      <c r="F26">
+        <v>1.309209376322906</v>
+      </c>
+      <c r="G26">
+        <v>0.3961782963993183</v>
+      </c>
+      <c r="H26">
+        <v>0.0003874337007359263</v>
+      </c>
+      <c r="I26">
+        <v>1.089884389547289</v>
+      </c>
+      <c r="J26">
+        <v>0.0009851134224001727</v>
+      </c>
+      <c r="K26">
+        <v>0.0009851134224001727</v>
+      </c>
+      <c r="L26">
+        <v>1.309209376322906</v>
+      </c>
+      <c r="M26">
+        <v>0.6545855675261937</v>
+      </c>
+      <c r="N26">
+        <v>0.6545855675261937</v>
+      </c>
+      <c r="O26">
+        <v>0.4365195229177077</v>
+      </c>
+      <c r="P26">
+        <v>0.4367187494915958</v>
+      </c>
+      <c r="Q26">
+        <v>0.4367187494915958</v>
+      </c>
+      <c r="R26">
+        <v>0.3277853404742969</v>
+      </c>
+      <c r="S26">
+        <v>0.3277853404742969</v>
+      </c>
+      <c r="T26">
+        <v>0.4661010613536885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>-0.0002872047814168314</v>
+      </c>
+      <c r="D27">
+        <v>0.6404703130826073</v>
+      </c>
+      <c r="E27">
+        <v>-0.0002872047814168314</v>
+      </c>
+      <c r="F27">
+        <v>1.249658272177324</v>
+      </c>
+      <c r="G27">
+        <v>2.268916713792476</v>
+      </c>
+      <c r="H27">
+        <v>0.002803107489512051</v>
+      </c>
+      <c r="I27">
+        <v>0.002043168524354677</v>
+      </c>
+      <c r="J27">
+        <v>0.6404703130826073</v>
+      </c>
+      <c r="K27">
+        <v>0.6404703130826073</v>
+      </c>
+      <c r="L27">
+        <v>1.249658272177324</v>
+      </c>
+      <c r="M27">
+        <v>0.6246855336979534</v>
+      </c>
+      <c r="N27">
+        <v>0.6246855336979534</v>
+      </c>
+      <c r="O27">
+        <v>0.417391391628473</v>
+      </c>
+      <c r="P27">
+        <v>0.6299471268261714</v>
+      </c>
+      <c r="Q27">
+        <v>0.6299471268261714</v>
+      </c>
+      <c r="R27">
+        <v>0.6325779233902804</v>
+      </c>
+      <c r="S27">
+        <v>0.6325779233902804</v>
+      </c>
+      <c r="T27">
+        <v>0.6939340617141428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>2.903845245071521</v>
+      </c>
+      <c r="D28">
+        <v>1.958545245476558</v>
+      </c>
+      <c r="E28">
+        <v>2.903845245071521</v>
+      </c>
+      <c r="F28">
+        <v>1.572721085219117</v>
+      </c>
+      <c r="G28">
+        <v>0.3387228095437783</v>
+      </c>
+      <c r="H28">
+        <v>0.2406056362658782</v>
+      </c>
+      <c r="I28">
+        <v>4.268177722779184</v>
+      </c>
+      <c r="J28">
+        <v>1.958545245476558</v>
+      </c>
+      <c r="K28">
+        <v>1.958545245476558</v>
+      </c>
+      <c r="L28">
+        <v>1.572721085219117</v>
+      </c>
+      <c r="M28">
+        <v>2.238283165145319</v>
+      </c>
+      <c r="N28">
+        <v>2.238283165145319</v>
+      </c>
+      <c r="O28">
+        <v>1.572390655518839</v>
+      </c>
+      <c r="P28">
+        <v>2.145037191922398</v>
+      </c>
+      <c r="Q28">
+        <v>2.145037191922398</v>
+      </c>
+      <c r="R28">
+        <v>2.098414205310938</v>
+      </c>
+      <c r="S28">
+        <v>2.098414205310938</v>
+      </c>
+      <c r="T28">
+        <v>1.880436290726006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>2.210287888644283</v>
+      </c>
+      <c r="D29">
+        <v>2.13958191603287</v>
+      </c>
+      <c r="E29">
+        <v>2.210287888644283</v>
+      </c>
+      <c r="F29">
+        <v>1.344573305334166</v>
+      </c>
+      <c r="G29">
+        <v>0.5428977265837168</v>
+      </c>
+      <c r="H29">
+        <v>0.4469159499604074</v>
+      </c>
+      <c r="I29">
+        <v>3.141411989905885</v>
+      </c>
+      <c r="J29">
+        <v>2.13958191603287</v>
+      </c>
+      <c r="K29">
+        <v>2.13958191603287</v>
+      </c>
+      <c r="L29">
+        <v>1.344573305334166</v>
+      </c>
+      <c r="M29">
+        <v>1.777430596989225</v>
+      </c>
+      <c r="N29">
+        <v>1.777430596989225</v>
+      </c>
+      <c r="O29">
+        <v>1.333925714646285</v>
+      </c>
+      <c r="P29">
+        <v>1.898147703337106</v>
+      </c>
+      <c r="Q29">
+        <v>1.898147703337107</v>
+      </c>
+      <c r="R29">
+        <v>1.958506256511047</v>
+      </c>
+      <c r="S29">
+        <v>1.958506256511047</v>
+      </c>
+      <c r="T29">
+        <v>1.637611462743555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8422099401887639</v>
+      </c>
+      <c r="D30">
+        <v>2.477296263536014</v>
+      </c>
+      <c r="E30">
+        <v>0.8422099401887639</v>
+      </c>
+      <c r="F30">
+        <v>0.8765775448295993</v>
+      </c>
+      <c r="G30">
+        <v>0.9362333454161685</v>
+      </c>
+      <c r="H30">
+        <v>0.8560224285443456</v>
+      </c>
+      <c r="I30">
+        <v>0.8770336424516101</v>
+      </c>
+      <c r="J30">
+        <v>2.477296263536014</v>
+      </c>
+      <c r="K30">
+        <v>2.477296263536014</v>
+      </c>
+      <c r="L30">
+        <v>0.8765775448295993</v>
+      </c>
+      <c r="M30">
+        <v>0.8593937425091815</v>
+      </c>
+      <c r="N30">
+        <v>0.8593937425091815</v>
+      </c>
+      <c r="O30">
+        <v>0.8582699711875695</v>
+      </c>
+      <c r="P30">
+        <v>1.398694582851459</v>
+      </c>
+      <c r="Q30">
+        <v>1.398694582851459</v>
+      </c>
+      <c r="R30">
+        <v>1.668345003022598</v>
+      </c>
+      <c r="S30">
+        <v>1.668345003022598</v>
+      </c>
+      <c r="T30">
+        <v>1.14422886082775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9697764914586564</v>
+      </c>
+      <c r="D31">
+        <v>3.108533394725944</v>
+      </c>
+      <c r="E31">
+        <v>0.9697764914586564</v>
+      </c>
+      <c r="F31">
+        <v>0.8370366925024544</v>
+      </c>
+      <c r="G31">
+        <v>0.9227839564303938</v>
+      </c>
+      <c r="H31">
+        <v>0.8596640544975267</v>
+      </c>
+      <c r="I31">
+        <v>0.8389161273826811</v>
+      </c>
+      <c r="J31">
+        <v>3.108533394725944</v>
+      </c>
+      <c r="K31">
+        <v>3.108533394725944</v>
+      </c>
+      <c r="L31">
+        <v>0.8370366925024544</v>
+      </c>
+      <c r="M31">
+        <v>0.9034065919805554</v>
+      </c>
+      <c r="N31">
+        <v>0.9034065919805554</v>
+      </c>
+      <c r="O31">
+        <v>0.8888257461528791</v>
+      </c>
+      <c r="P31">
+        <v>1.638448859562352</v>
+      </c>
+      <c r="Q31">
+        <v>1.638448859562352</v>
+      </c>
+      <c r="R31">
+        <v>2.00596999335325</v>
+      </c>
+      <c r="S31">
+        <v>2.00596999335325</v>
+      </c>
+      <c r="T31">
+        <v>1.256118452832943</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>3.546992908578082</v>
+      </c>
+      <c r="D32">
+        <v>2.190735432625203</v>
+      </c>
+      <c r="E32">
+        <v>3.546992908578082</v>
+      </c>
+      <c r="F32">
+        <v>1.775332564508494</v>
+      </c>
+      <c r="G32">
+        <v>0.1322031380882192</v>
+      </c>
+      <c r="H32">
+        <v>0.03338700197178082</v>
+      </c>
+      <c r="I32">
+        <v>5.319466521345481</v>
+      </c>
+      <c r="J32">
+        <v>2.190735432625203</v>
+      </c>
+      <c r="K32">
+        <v>2.190735432625203</v>
+      </c>
+      <c r="L32">
+        <v>1.775332564508494</v>
+      </c>
+      <c r="M32">
+        <v>2.661162736543288</v>
+      </c>
+      <c r="N32">
+        <v>2.661162736543288</v>
+      </c>
+      <c r="O32">
+        <v>1.785237491686119</v>
+      </c>
+      <c r="P32">
+        <v>2.50435363523726</v>
+      </c>
+      <c r="Q32">
+        <v>2.50435363523726</v>
+      </c>
+      <c r="R32">
+        <v>2.425949084584246</v>
+      </c>
+      <c r="S32">
+        <v>2.425949084584246</v>
+      </c>
+      <c r="T32">
+        <v>2.166352927852877</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>5.005963437736842</v>
+      </c>
+      <c r="D33">
+        <v>2.504103374543155</v>
+      </c>
+      <c r="E33">
+        <v>5.005963437736842</v>
+      </c>
+      <c r="F33">
+        <v>1.705068172310526</v>
+      </c>
+      <c r="G33">
+        <v>0.1269133485031579</v>
+      </c>
+      <c r="H33">
+        <v>0.03246660502157895</v>
+      </c>
+      <c r="I33">
+        <v>5.109614947677895</v>
+      </c>
+      <c r="J33">
+        <v>2.504103374543155</v>
+      </c>
+      <c r="K33">
+        <v>2.504103374543155</v>
+      </c>
+      <c r="L33">
+        <v>1.705068172310526</v>
+      </c>
+      <c r="M33">
+        <v>3.355515805023684</v>
+      </c>
+      <c r="N33">
+        <v>3.355515805023684</v>
+      </c>
+      <c r="O33">
+        <v>2.247832738356316</v>
+      </c>
+      <c r="P33">
+        <v>3.071711661530175</v>
+      </c>
+      <c r="Q33">
+        <v>3.071711661530174</v>
+      </c>
+      <c r="R33">
+        <v>2.929809589783419</v>
+      </c>
+      <c r="S33">
+        <v>2.929809589783419</v>
+      </c>
+      <c r="T33">
+        <v>2.414021647632192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>6.814890419515787</v>
+      </c>
+      <c r="D34">
+        <v>5.005990693075261</v>
+      </c>
+      <c r="E34">
+        <v>6.814890419515787</v>
+      </c>
+      <c r="F34">
+        <v>0.000953589023157895</v>
+      </c>
+      <c r="G34">
+        <v>0.005181390923157896</v>
+      </c>
+      <c r="H34">
+        <v>3.406636220694736</v>
+      </c>
+      <c r="I34">
+        <v>-0.001357140015789474</v>
+      </c>
+      <c r="J34">
+        <v>5.005990693075261</v>
+      </c>
+      <c r="K34">
+        <v>5.005990693075261</v>
+      </c>
+      <c r="L34">
+        <v>0.000953589023157895</v>
+      </c>
+      <c r="M34">
+        <v>3.407922004269472</v>
+      </c>
+      <c r="N34">
+        <v>3.407922004269472</v>
+      </c>
+      <c r="O34">
+        <v>3.407493409744561</v>
+      </c>
+      <c r="P34">
+        <v>3.940611567204735</v>
+      </c>
+      <c r="Q34">
+        <v>3.940611567204735</v>
+      </c>
+      <c r="R34">
+        <v>4.206956348672366</v>
+      </c>
+      <c r="S34">
+        <v>4.206956348672366</v>
+      </c>
+      <c r="T34">
+        <v>2.538715862202718</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4125646662036762</v>
+      </c>
+      <c r="D35">
+        <v>16.39057746064753</v>
+      </c>
+      <c r="E35">
+        <v>0.4125646662036762</v>
+      </c>
+      <c r="F35">
+        <v>0.4497217933866716</v>
+      </c>
+      <c r="G35">
+        <v>0.4798829391577679</v>
+      </c>
+      <c r="H35">
+        <v>0.4322616215945262</v>
+      </c>
+      <c r="I35">
+        <v>0.4222862741407042</v>
+      </c>
+      <c r="J35">
+        <v>16.39057746064753</v>
+      </c>
+      <c r="K35">
+        <v>16.39057746064753</v>
+      </c>
+      <c r="L35">
+        <v>0.4497217933866716</v>
+      </c>
+      <c r="M35">
+        <v>0.4311432297951739</v>
+      </c>
+      <c r="N35">
+        <v>0.4311432297951739</v>
+      </c>
+      <c r="O35">
+        <v>0.4315160270616247</v>
+      </c>
+      <c r="P35">
+        <v>5.750954640079293</v>
+      </c>
+      <c r="Q35">
+        <v>5.750954640079293</v>
+      </c>
+      <c r="R35">
+        <v>8.410860345221352</v>
+      </c>
+      <c r="S35">
+        <v>8.410860345221352</v>
+      </c>
+      <c r="T35">
+        <v>3.097882459188479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.031138069688352</v>
+      </c>
+      <c r="D36">
+        <v>1.008464077761641</v>
+      </c>
+      <c r="E36">
+        <v>1.031138069688352</v>
+      </c>
+      <c r="F36">
+        <v>0.9908759265535202</v>
+      </c>
+      <c r="G36">
+        <v>1.000358629573474</v>
+      </c>
+      <c r="H36">
+        <v>1.002512455826429</v>
+      </c>
+      <c r="I36">
+        <v>1.034155010129832</v>
+      </c>
+      <c r="J36">
+        <v>1.008464077761641</v>
+      </c>
+      <c r="K36">
+        <v>1.008464077761641</v>
+      </c>
+      <c r="L36">
+        <v>0.9908759265535202</v>
+      </c>
+      <c r="M36">
+        <v>1.011006998120936</v>
+      </c>
+      <c r="N36">
+        <v>1.011006998120936</v>
+      </c>
+      <c r="O36">
+        <v>1.008175484022767</v>
+      </c>
+      <c r="P36">
+        <v>1.010159358001171</v>
+      </c>
+      <c r="Q36">
+        <v>1.010159358001171</v>
+      </c>
+      <c r="R36">
+        <v>1.009735537941288</v>
+      </c>
+      <c r="S36">
+        <v>1.009735537941288</v>
+      </c>
+      <c r="T36">
+        <v>1.011250694922208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9392753328647234</v>
+      </c>
+      <c r="D37">
+        <v>1.041983523853957</v>
+      </c>
+      <c r="E37">
+        <v>0.9392753328647234</v>
+      </c>
+      <c r="F37">
+        <v>1.013350800876991</v>
+      </c>
+      <c r="G37">
+        <v>0.9960884368705112</v>
+      </c>
+      <c r="H37">
+        <v>1.000888885386465</v>
+      </c>
+      <c r="I37">
+        <v>0.9354736755735502</v>
+      </c>
+      <c r="J37">
+        <v>1.041983523853957</v>
+      </c>
+      <c r="K37">
+        <v>1.041983523853957</v>
+      </c>
+      <c r="L37">
+        <v>1.013350800876991</v>
+      </c>
+      <c r="M37">
+        <v>0.9763130668708572</v>
+      </c>
+      <c r="N37">
+        <v>0.9763130668708572</v>
+      </c>
+      <c r="O37">
+        <v>0.98450500637606</v>
+      </c>
+      <c r="P37">
+        <v>0.9982032191985569</v>
+      </c>
+      <c r="Q37">
+        <v>0.9982032191985569</v>
+      </c>
+      <c r="R37">
+        <v>1.009148295362407</v>
+      </c>
+      <c r="S37">
+        <v>1.009148295362407</v>
+      </c>
+      <c r="T37">
+        <v>0.987843442571033</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.093415462203179</v>
+      </c>
+      <c r="D38">
+        <v>1.073391139703799</v>
+      </c>
+      <c r="E38">
+        <v>1.093415462203179</v>
+      </c>
+      <c r="F38">
+        <v>1.027181740133788</v>
+      </c>
+      <c r="G38">
+        <v>0.9980522778935983</v>
+      </c>
+      <c r="H38">
+        <v>1.018729694742852</v>
+      </c>
+      <c r="I38">
+        <v>1.270726086653939</v>
+      </c>
+      <c r="J38">
+        <v>1.073391139703799</v>
+      </c>
+      <c r="K38">
+        <v>1.073391139703799</v>
+      </c>
+      <c r="L38">
+        <v>1.027181740133788</v>
+      </c>
+      <c r="M38">
+        <v>1.060298601168483</v>
+      </c>
+      <c r="N38">
+        <v>1.060298601168483</v>
+      </c>
+      <c r="O38">
+        <v>1.046442299026606</v>
+      </c>
+      <c r="P38">
+        <v>1.064662780680255</v>
+      </c>
+      <c r="Q38">
+        <v>1.064662780680255</v>
+      </c>
+      <c r="R38">
+        <v>1.066844870436141</v>
+      </c>
+      <c r="S38">
+        <v>1.066844870436141</v>
+      </c>
+      <c r="T38">
+        <v>1.080249400221859</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.735676444818944</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.032145961755988</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.735676444818944</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.151630798566349</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.057636092121319</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9550907031169384</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.411558137575153</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.032145961755988</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.032145961755988</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.151630798566349</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.443653621692647</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.443653621692647</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.280799315500744</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.30648440171376</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.30648440171376</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.237899791724317</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.237899791724317</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.223956356325782</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>3.048604344375596</v>
+      </c>
+      <c r="D40">
+        <v>0.8481479666743492</v>
+      </c>
+      <c r="E40">
+        <v>3.048604344375596</v>
+      </c>
+      <c r="F40">
+        <v>0.8577481819861622</v>
+      </c>
+      <c r="G40">
+        <v>0.8195701054735142</v>
+      </c>
+      <c r="H40">
+        <v>1.128040395823614</v>
+      </c>
+      <c r="I40">
+        <v>0.8756984645642418</v>
+      </c>
+      <c r="J40">
+        <v>0.8481479666743492</v>
+      </c>
+      <c r="K40">
+        <v>0.8481479666743492</v>
+      </c>
+      <c r="L40">
+        <v>0.8577481819861622</v>
+      </c>
+      <c r="M40">
+        <v>1.953176263180879</v>
+      </c>
+      <c r="N40">
+        <v>1.953176263180879</v>
+      </c>
+      <c r="O40">
+        <v>1.678130974061791</v>
+      </c>
+      <c r="P40">
+        <v>1.584833497678702</v>
+      </c>
+      <c r="Q40">
+        <v>1.584833497678702</v>
+      </c>
+      <c r="R40">
+        <v>1.400662114927614</v>
+      </c>
+      <c r="S40">
+        <v>1.400662114927614</v>
+      </c>
+      <c r="T40">
+        <v>1.262968243149579</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.243304770346908</v>
+      </c>
+      <c r="D41">
+        <v>1.195868139876481</v>
+      </c>
+      <c r="E41">
+        <v>1.243304770346908</v>
+      </c>
+      <c r="F41">
+        <v>0.7520367207237999</v>
+      </c>
+      <c r="G41">
+        <v>0.8637618517228066</v>
+      </c>
+      <c r="H41">
+        <v>1.240642564501437</v>
+      </c>
+      <c r="I41">
+        <v>0.714287041076354</v>
+      </c>
+      <c r="J41">
+        <v>1.195868139876481</v>
+      </c>
+      <c r="K41">
+        <v>1.195868139876481</v>
+      </c>
+      <c r="L41">
+        <v>0.7520367207237999</v>
+      </c>
+      <c r="M41">
+        <v>0.9976707455353541</v>
+      </c>
+      <c r="N41">
+        <v>0.9976707455353541</v>
+      </c>
+      <c r="O41">
+        <v>1.078661351857382</v>
+      </c>
+      <c r="P41">
+        <v>1.063736543649063</v>
+      </c>
+      <c r="Q41">
+        <v>1.063736543649063</v>
+      </c>
+      <c r="R41">
+        <v>1.096769442705918</v>
+      </c>
+      <c r="S41">
+        <v>1.096769442705918</v>
+      </c>
+      <c r="T41">
+        <v>1.001650181374631</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>2.627674710423898</v>
+      </c>
+      <c r="D42">
+        <v>0.3837273406914525</v>
+      </c>
+      <c r="E42">
+        <v>2.627674710423898</v>
+      </c>
+      <c r="F42">
+        <v>1.162973782840114</v>
+      </c>
+      <c r="G42">
+        <v>1.054450793984774</v>
+      </c>
+      <c r="H42">
+        <v>0.7689750341935775</v>
+      </c>
+      <c r="I42">
+        <v>1.076150247544387</v>
+      </c>
+      <c r="J42">
+        <v>0.3837273406914525</v>
+      </c>
+      <c r="K42">
+        <v>0.3837273406914525</v>
+      </c>
+      <c r="L42">
+        <v>1.162973782840114</v>
+      </c>
+      <c r="M42">
+        <v>1.895324246632006</v>
+      </c>
+      <c r="N42">
+        <v>1.895324246632006</v>
+      </c>
+      <c r="O42">
+        <v>1.51987450915253</v>
+      </c>
+      <c r="P42">
+        <v>1.391458611318488</v>
+      </c>
+      <c r="Q42">
+        <v>1.391458611318488</v>
+      </c>
+      <c r="R42">
+        <v>1.139525793661729</v>
+      </c>
+      <c r="S42">
+        <v>1.139525793661729</v>
+      </c>
+      <c r="T42">
+        <v>1.178991984946367</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW05.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.074322521749746</v>
+        <v>0.9819980349542811</v>
       </c>
       <c r="D3">
-        <v>1.13812583407412</v>
+        <v>1.078711463388967</v>
       </c>
       <c r="E3">
-        <v>1.028371664848311</v>
+        <v>0.9819980349542811</v>
       </c>
       <c r="F3">
-        <v>1.074322521749746</v>
+        <v>0.9971302055268662</v>
       </c>
       <c r="G3">
-        <v>1.18952273199042</v>
+        <v>0.9968328938724924</v>
       </c>
       <c r="H3">
-        <v>0.9625741815834203</v>
+        <v>0.9957750383952585</v>
       </c>
       <c r="I3">
-        <v>0.9594495978048744</v>
+        <v>0.9954523726943254</v>
       </c>
       <c r="J3">
-        <v>1.13812583407412</v>
+        <v>1.078711463388967</v>
       </c>
       <c r="K3">
-        <v>1.074322521749746</v>
+        <v>1.078711463388967</v>
       </c>
       <c r="L3">
-        <v>1.028371664848311</v>
+        <v>0.9971302055268662</v>
       </c>
       <c r="M3">
-        <v>1.083248749461216</v>
+        <v>0.9895641202405736</v>
       </c>
       <c r="N3">
-        <v>1.083248749461216</v>
+        <v>0.9895641202405736</v>
       </c>
       <c r="O3">
-        <v>1.04302389350195</v>
+        <v>0.9916344262921353</v>
       </c>
       <c r="P3">
-        <v>1.080273340224059</v>
+        <v>1.019279901290038</v>
       </c>
       <c r="Q3">
-        <v>1.080273340224059</v>
+        <v>1.019279901290038</v>
       </c>
       <c r="R3">
-        <v>1.078785635605481</v>
+        <v>1.034137791814771</v>
       </c>
       <c r="S3">
-        <v>1.078785635605481</v>
+        <v>1.034137791814771</v>
       </c>
       <c r="T3">
-        <v>1.058727755341815</v>
+        <v>1.007650001472032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.101847130511523</v>
+        <v>3.048604344375596</v>
       </c>
       <c r="D4">
-        <v>1.210728614005556</v>
+        <v>0.8481479666743492</v>
       </c>
       <c r="E4">
-        <v>1.055484369385754</v>
+        <v>3.048604344375596</v>
       </c>
       <c r="F4">
-        <v>1.101847130511523</v>
+        <v>0.8577481819861622</v>
       </c>
       <c r="G4">
-        <v>1.4201230499714</v>
+        <v>0.8195701054735142</v>
       </c>
       <c r="H4">
-        <v>0.9214055545644101</v>
+        <v>1.128040395823614</v>
       </c>
       <c r="I4">
-        <v>0.9642660778151785</v>
+        <v>0.8756984645642418</v>
       </c>
       <c r="J4">
-        <v>1.210728614005556</v>
+        <v>0.8481479666743492</v>
       </c>
       <c r="K4">
-        <v>1.101847130511523</v>
+        <v>0.8481479666743492</v>
       </c>
       <c r="L4">
-        <v>1.055484369385754</v>
+        <v>0.8577481819861622</v>
       </c>
       <c r="M4">
-        <v>1.133106491695655</v>
+        <v>1.953176263180879</v>
       </c>
       <c r="N4">
-        <v>1.133106491695655</v>
+        <v>1.953176263180879</v>
       </c>
       <c r="O4">
-        <v>1.062539512651907</v>
+        <v>1.678130974061791</v>
       </c>
       <c r="P4">
-        <v>1.122686704634278</v>
+        <v>1.584833497678702</v>
       </c>
       <c r="Q4">
-        <v>1.122686704634278</v>
+        <v>1.584833497678702</v>
       </c>
       <c r="R4">
-        <v>1.117476811103589</v>
+        <v>1.400662114927614</v>
       </c>
       <c r="S4">
-        <v>1.117476811103589</v>
+        <v>1.400662114927614</v>
       </c>
       <c r="T4">
-        <v>1.11230913270897</v>
+        <v>1.262968243149579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.271927119364566</v>
+        <v>0.9489161448491406</v>
       </c>
       <c r="D5">
-        <v>1.746332711727221</v>
+        <v>3.16238014435602</v>
       </c>
       <c r="E5">
-        <v>1.411728094020053</v>
+        <v>0.9489161448491406</v>
       </c>
       <c r="F5">
-        <v>1.271927119364566</v>
+        <v>0.8762275241536016</v>
       </c>
       <c r="G5">
-        <v>1.825014655592563</v>
+        <v>0.8979585794831105</v>
       </c>
       <c r="H5">
-        <v>0.7492218577003725</v>
+        <v>0.8559027991708632</v>
       </c>
       <c r="I5">
-        <v>0.8703920673765215</v>
+        <v>0.9569372879837102</v>
       </c>
       <c r="J5">
-        <v>1.746332711727221</v>
+        <v>3.16238014435602</v>
       </c>
       <c r="K5">
-        <v>1.271927119364566</v>
+        <v>3.16238014435602</v>
       </c>
       <c r="L5">
-        <v>1.411728094020053</v>
+        <v>0.8762275241536016</v>
       </c>
       <c r="M5">
-        <v>1.579030402873637</v>
+        <v>0.9125718345013711</v>
       </c>
       <c r="N5">
-        <v>1.579030402873637</v>
+        <v>0.9125718345013711</v>
       </c>
       <c r="O5">
-        <v>1.302427554482549</v>
+        <v>0.8936821560578685</v>
       </c>
       <c r="P5">
-        <v>1.476662641703947</v>
+        <v>1.662507937786254</v>
       </c>
       <c r="Q5">
-        <v>1.476662641703947</v>
+        <v>1.662507937786254</v>
       </c>
       <c r="R5">
-        <v>1.425478761119102</v>
+        <v>2.037475989428696</v>
       </c>
       <c r="S5">
-        <v>1.425478761119102</v>
+        <v>2.037475989428696</v>
       </c>
       <c r="T5">
-        <v>1.312436084296883</v>
+        <v>1.283053746666074</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.163375059874473</v>
+        <v>0.4125646662036762</v>
       </c>
       <c r="D6">
-        <v>3.278424772974699</v>
+        <v>16.39057746064753</v>
       </c>
       <c r="E6">
-        <v>0.7460549379795592</v>
+        <v>0.4125646662036762</v>
       </c>
       <c r="F6">
-        <v>2.163375059874473</v>
+        <v>0.4497217933866716</v>
       </c>
       <c r="G6">
-        <v>2.211570024874084</v>
+        <v>0.4798829391577679</v>
       </c>
       <c r="H6">
-        <v>0.9097609234204282</v>
+        <v>0.4322616215945262</v>
       </c>
       <c r="I6">
-        <v>1.076766166713142</v>
+        <v>0.4222862741407042</v>
       </c>
       <c r="J6">
-        <v>3.278424772974699</v>
+        <v>16.39057746064753</v>
       </c>
       <c r="K6">
-        <v>2.163375059874473</v>
+        <v>16.39057746064753</v>
       </c>
       <c r="L6">
-        <v>0.7460549379795592</v>
+        <v>0.4497217933866716</v>
       </c>
       <c r="M6">
-        <v>2.012239855477129</v>
+        <v>0.4311432297951739</v>
       </c>
       <c r="N6">
-        <v>2.012239855477129</v>
+        <v>0.4311432297951739</v>
       </c>
       <c r="O6">
-        <v>1.644746878124895</v>
+        <v>0.4315160270616247</v>
       </c>
       <c r="P6">
-        <v>2.06261825694291</v>
+        <v>5.750954640079293</v>
       </c>
       <c r="Q6">
-        <v>2.062618256942911</v>
+        <v>5.750954640079293</v>
       </c>
       <c r="R6">
-        <v>2.087807457675801</v>
+        <v>8.410860345221352</v>
       </c>
       <c r="S6">
-        <v>2.087807457675801</v>
+        <v>8.410860345221352</v>
       </c>
       <c r="T6">
-        <v>1.730991980972731</v>
+        <v>3.097882459188479</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.029843163347551</v>
+        <v>1.113441287860716</v>
       </c>
       <c r="D7">
-        <v>0.9978198164643189</v>
+        <v>1.032768272421137</v>
       </c>
       <c r="E7">
-        <v>0.9988883595848499</v>
+        <v>1.113441287860716</v>
       </c>
       <c r="F7">
-        <v>1.029843163347551</v>
+        <v>1.027234540520978</v>
       </c>
       <c r="G7">
-        <v>0.9994401891882877</v>
+        <v>0.9623057692794994</v>
       </c>
       <c r="H7">
-        <v>0.9985360803273204</v>
+        <v>0.9684987115197976</v>
       </c>
       <c r="I7">
-        <v>0.9989491750092833</v>
+        <v>1.174083071690662</v>
       </c>
       <c r="J7">
-        <v>0.9978198164643189</v>
+        <v>1.032768272421137</v>
       </c>
       <c r="K7">
-        <v>1.029843163347551</v>
+        <v>1.032768272421137</v>
       </c>
       <c r="L7">
-        <v>0.9988883595848499</v>
+        <v>1.027234540520978</v>
       </c>
       <c r="M7">
-        <v>0.9983540880245845</v>
+        <v>1.070337914190847</v>
       </c>
       <c r="N7">
-        <v>0.9983540880245845</v>
+        <v>1.070337914190847</v>
       </c>
       <c r="O7">
-        <v>0.9984147521254965</v>
+        <v>1.036391513300497</v>
       </c>
       <c r="P7">
-        <v>1.008850446465573</v>
+        <v>1.05781470026761</v>
       </c>
       <c r="Q7">
-        <v>1.008850446465573</v>
+        <v>1.05781470026761</v>
       </c>
       <c r="R7">
-        <v>1.014098625686068</v>
+        <v>1.051553093305992</v>
       </c>
       <c r="S7">
-        <v>1.014098625686068</v>
+        <v>1.051553093305992</v>
       </c>
       <c r="T7">
-        <v>1.003912797320269</v>
+        <v>1.046388608882131</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.078711463388964</v>
+        <v>0.9392753328647234</v>
       </c>
       <c r="D8">
-        <v>0.9819980349542807</v>
+        <v>1.041983523853957</v>
       </c>
       <c r="E8">
-        <v>0.9971302055268659</v>
+        <v>0.9392753328647234</v>
       </c>
       <c r="F8">
-        <v>1.078711463388964</v>
+        <v>1.013350800876991</v>
       </c>
       <c r="G8">
-        <v>0.9954523726943252</v>
+        <v>0.9960884368705112</v>
       </c>
       <c r="H8">
-        <v>0.9957750383952585</v>
+        <v>1.000888885386465</v>
       </c>
       <c r="I8">
-        <v>0.996832893872493</v>
+        <v>0.9354736755735502</v>
       </c>
       <c r="J8">
-        <v>0.9819980349542807</v>
+        <v>1.041983523853957</v>
       </c>
       <c r="K8">
-        <v>1.078711463388964</v>
+        <v>1.041983523853957</v>
       </c>
       <c r="L8">
-        <v>0.9971302055268659</v>
+        <v>1.013350800876991</v>
       </c>
       <c r="M8">
-        <v>0.9895641202405734</v>
+        <v>0.9763130668708572</v>
       </c>
       <c r="N8">
-        <v>0.9895641202405734</v>
+        <v>0.9763130668708572</v>
       </c>
       <c r="O8">
-        <v>0.9916344262921352</v>
+        <v>0.98450500637606</v>
       </c>
       <c r="P8">
-        <v>1.019279901290037</v>
+        <v>0.9982032191985569</v>
       </c>
       <c r="Q8">
-        <v>1.019279901290037</v>
+        <v>0.9982032191985569</v>
       </c>
       <c r="R8">
-        <v>1.034137791814769</v>
+        <v>1.009148295362407</v>
       </c>
       <c r="S8">
-        <v>1.034137791814769</v>
+        <v>1.009148295362407</v>
       </c>
       <c r="T8">
-        <v>1.007650001472031</v>
+        <v>0.987843442571033</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.111478133304049</v>
+        <v>1.210728614005556</v>
       </c>
       <c r="D9">
-        <v>1.031945232691077</v>
+        <v>1.101847130511523</v>
       </c>
       <c r="E9">
-        <v>0.9852810997380724</v>
+        <v>1.210728614005556</v>
       </c>
       <c r="F9">
-        <v>1.111478133304049</v>
+        <v>1.055484369385754</v>
       </c>
       <c r="G9">
-        <v>0.9733221962586378</v>
+        <v>0.9642660778151785</v>
       </c>
       <c r="H9">
-        <v>0.9901247052543171</v>
+        <v>0.9214055545644101</v>
       </c>
       <c r="I9">
-        <v>1.0014586231768</v>
+        <v>1.4201230499714</v>
       </c>
       <c r="J9">
-        <v>1.031945232691077</v>
+        <v>1.101847130511523</v>
       </c>
       <c r="K9">
-        <v>1.111478133304049</v>
+        <v>1.101847130511523</v>
       </c>
       <c r="L9">
-        <v>0.9852810997380724</v>
+        <v>1.055484369385754</v>
       </c>
       <c r="M9">
-        <v>1.008613166214575</v>
+        <v>1.133106491695655</v>
       </c>
       <c r="N9">
-        <v>1.008613166214575</v>
+        <v>1.133106491695655</v>
       </c>
       <c r="O9">
-        <v>1.002450345894489</v>
+        <v>1.062539512651907</v>
       </c>
       <c r="P9">
-        <v>1.042901488577733</v>
+        <v>1.122686704634278</v>
       </c>
       <c r="Q9">
-        <v>1.042901488577733</v>
+        <v>1.122686704634278</v>
       </c>
       <c r="R9">
-        <v>1.060045649759312</v>
+        <v>1.117476811103589</v>
       </c>
       <c r="S9">
-        <v>1.060045649759312</v>
+        <v>1.117476811103589</v>
       </c>
       <c r="T9">
-        <v>1.015601665070492</v>
+        <v>1.11230913270897</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.24660084764939</v>
+        <v>0.4538082553536477</v>
       </c>
       <c r="D10">
-        <v>1.027160859135486</v>
+        <v>16.72869279735959</v>
       </c>
       <c r="E10">
-        <v>0.9860275616243576</v>
+        <v>0.4538082553536477</v>
       </c>
       <c r="F10">
-        <v>1.24660084764939</v>
+        <v>0.4075985438593305</v>
       </c>
       <c r="G10">
-        <v>0.9678202625954544</v>
+        <v>0.4594950147539089</v>
       </c>
       <c r="H10">
-        <v>0.9793326486777579</v>
+        <v>0.4187421654799074</v>
       </c>
       <c r="I10">
-        <v>0.9914481327333448</v>
+        <v>0.4150943455699365</v>
       </c>
       <c r="J10">
-        <v>1.027160859135486</v>
+        <v>16.72869279735959</v>
       </c>
       <c r="K10">
-        <v>1.24660084764939</v>
+        <v>16.72869279735959</v>
       </c>
       <c r="L10">
-        <v>0.9860275616243576</v>
+        <v>0.4075985438593305</v>
       </c>
       <c r="M10">
-        <v>1.006594210379922</v>
+        <v>0.4307033996064891</v>
       </c>
       <c r="N10">
-        <v>1.006594210379922</v>
+        <v>0.4307033996064891</v>
       </c>
       <c r="O10">
-        <v>0.9975070231458671</v>
+        <v>0.4267163215642952</v>
       </c>
       <c r="P10">
-        <v>1.086596422803078</v>
+        <v>5.863366532190856</v>
       </c>
       <c r="Q10">
-        <v>1.086596422803078</v>
+        <v>5.863366532190855</v>
       </c>
       <c r="R10">
-        <v>1.126597529014656</v>
+        <v>8.579698098483039</v>
       </c>
       <c r="S10">
-        <v>1.126597529014656</v>
+        <v>8.579698098483039</v>
       </c>
       <c r="T10">
-        <v>1.033065052069299</v>
+        <v>3.147238520396053</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.502673962582817</v>
+        <v>3.261204531080033</v>
       </c>
       <c r="D11">
-        <v>1.424673424588714</v>
+        <v>1.020380074334446</v>
       </c>
       <c r="E11">
-        <v>0.8888749234921016</v>
+        <v>3.261204531080033</v>
       </c>
       <c r="F11">
-        <v>1.502673962582817</v>
+        <v>0.6279185407726234</v>
       </c>
       <c r="G11">
-        <v>0.7780666993137296</v>
+        <v>0.7214433161865669</v>
       </c>
       <c r="H11">
-        <v>1.071269861644135</v>
+        <v>1.39575443444137</v>
       </c>
       <c r="I11">
-        <v>1.000393184592135</v>
+        <v>0.5595652840934555</v>
       </c>
       <c r="J11">
-        <v>1.424673424588714</v>
+        <v>1.020380074334446</v>
       </c>
       <c r="K11">
-        <v>1.502673962582817</v>
+        <v>1.020380074334446</v>
       </c>
       <c r="L11">
-        <v>0.8888749234921016</v>
+        <v>0.6279185407726234</v>
       </c>
       <c r="M11">
-        <v>1.156774174040408</v>
+        <v>1.944561535926328</v>
       </c>
       <c r="N11">
-        <v>1.156774174040408</v>
+        <v>1.944561535926328</v>
       </c>
       <c r="O11">
-        <v>1.128272736574983</v>
+        <v>1.761625835431342</v>
       </c>
       <c r="P11">
-        <v>1.272074103554544</v>
+        <v>1.636501048729034</v>
       </c>
       <c r="Q11">
-        <v>1.272074103554544</v>
+        <v>1.636501048729034</v>
       </c>
       <c r="R11">
-        <v>1.329724068311612</v>
+        <v>1.482470805130387</v>
       </c>
       <c r="S11">
-        <v>1.329724068311612</v>
+        <v>1.482470805130387</v>
       </c>
       <c r="T11">
-        <v>1.110992009368939</v>
+        <v>1.264377696818082</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.04323703425391155</v>
+        <v>0.9598463787831661</v>
       </c>
       <c r="D12">
-        <v>0.00230386801961687</v>
+        <v>4.183999298255401</v>
       </c>
       <c r="E12">
-        <v>1.478040375546566</v>
+        <v>0.9598463787831661</v>
       </c>
       <c r="F12">
-        <v>0.04323703425391155</v>
+        <v>0.7603920160813018</v>
       </c>
       <c r="G12">
-        <v>0.04493336651283093</v>
+        <v>0.8627305261328262</v>
       </c>
       <c r="H12">
-        <v>0.7438671392546315</v>
+        <v>0.8361496675675332</v>
       </c>
       <c r="I12">
-        <v>1.437118756671864</v>
+        <v>0.7583303696573928</v>
       </c>
       <c r="J12">
-        <v>0.00230386801961687</v>
+        <v>4.183999298255401</v>
       </c>
       <c r="K12">
-        <v>0.04323703425391155</v>
+        <v>4.183999298255401</v>
       </c>
       <c r="L12">
-        <v>1.478040375546566</v>
+        <v>0.7603920160813018</v>
       </c>
       <c r="M12">
-        <v>0.7401721217830912</v>
+        <v>0.860119197432234</v>
       </c>
       <c r="N12">
-        <v>0.7401721217830912</v>
+        <v>0.860119197432234</v>
       </c>
       <c r="O12">
-        <v>0.7414037942736047</v>
+        <v>0.8521293541440004</v>
       </c>
       <c r="P12">
-        <v>0.5078604259400313</v>
+        <v>1.968079231039956</v>
       </c>
       <c r="Q12">
-        <v>0.5078604259400313</v>
+        <v>1.968079231039956</v>
       </c>
       <c r="R12">
-        <v>0.3917045780185014</v>
+        <v>2.522059247843818</v>
       </c>
       <c r="S12">
-        <v>0.3917045780185014</v>
+        <v>2.522059247843818</v>
       </c>
       <c r="T12">
-        <v>0.6249167567099034</v>
+        <v>1.393574709412937</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.195642819680751</v>
+        <v>1.36122082415067</v>
       </c>
       <c r="D13">
-        <v>2.359723982081749</v>
+        <v>0.9254235715658449</v>
       </c>
       <c r="E13">
-        <v>0.0612939820474509</v>
+        <v>1.36122082415067</v>
       </c>
       <c r="F13">
-        <v>2.195642819680751</v>
+        <v>0.978127520364825</v>
       </c>
       <c r="G13">
-        <v>2.989604547419955</v>
+        <v>0.9579048336022004</v>
       </c>
       <c r="H13">
-        <v>1.253314960072907</v>
+        <v>1.059439168164938</v>
       </c>
       <c r="I13">
-        <v>0.4768826445781505</v>
+        <v>1.019980895473996</v>
       </c>
       <c r="J13">
-        <v>2.359723982081749</v>
+        <v>0.9254235715658449</v>
       </c>
       <c r="K13">
-        <v>2.195642819680751</v>
+        <v>0.9254235715658449</v>
       </c>
       <c r="L13">
-        <v>0.0612939820474509</v>
+        <v>0.978127520364825</v>
       </c>
       <c r="M13">
-        <v>1.2105089820646</v>
+        <v>1.169674172257748</v>
       </c>
       <c r="N13">
-        <v>1.2105089820646</v>
+        <v>1.169674172257748</v>
       </c>
       <c r="O13">
-        <v>1.224777641400703</v>
+        <v>1.132929170893478</v>
       </c>
       <c r="P13">
-        <v>1.538886927936651</v>
+        <v>1.088257305360447</v>
       </c>
       <c r="Q13">
-        <v>1.53888692793665</v>
+        <v>1.088257305360447</v>
       </c>
       <c r="R13">
-        <v>1.703075900872675</v>
+        <v>1.047548871911796</v>
       </c>
       <c r="S13">
-        <v>1.703075900872675</v>
+        <v>1.047548871911796</v>
       </c>
       <c r="T13">
-        <v>1.55607715598016</v>
+        <v>1.050349468887079</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.000985113422400172</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="D14">
-        <v>-3.824127051842926E-05</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="E14">
-        <v>1.309209376322907</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="F14">
-        <v>0.000985113422400172</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="G14">
-        <v>1.089884389547287</v>
+        <v>0.003743037199999997</v>
       </c>
       <c r="H14">
-        <v>0.0003874337007359263</v>
+        <v>0.002542095699999998</v>
       </c>
       <c r="I14">
-        <v>0.3961782963993187</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="J14">
-        <v>-3.824127051842926E-05</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="K14">
-        <v>0.000985113422400172</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="L14">
-        <v>1.309209376322907</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M14">
-        <v>0.6545855675261942</v>
+        <v>0.0009336855000000008</v>
       </c>
       <c r="N14">
-        <v>0.6545855675261942</v>
+        <v>0.0009336855000000008</v>
       </c>
       <c r="O14">
-        <v>0.4365195229177081</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P14">
-        <v>0.4367187494915962</v>
+        <v>10.12794779033332</v>
       </c>
       <c r="Q14">
-        <v>0.4367187494915962</v>
+        <v>10.12794779033332</v>
       </c>
       <c r="R14">
-        <v>0.3277853404742972</v>
+        <v>15.19145484274998</v>
       </c>
       <c r="S14">
-        <v>0.3277853404742972</v>
+        <v>15.19145484274998</v>
       </c>
       <c r="T14">
-        <v>0.4661010613536884</v>
+        <v>5.064556055499993</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6404703130826073</v>
+        <v>0.0030969418</v>
       </c>
       <c r="D15">
-        <v>-0.0002872047814168316</v>
+        <v>30.381976</v>
       </c>
       <c r="E15">
-        <v>1.249658272177324</v>
+        <v>0.0030969418</v>
       </c>
       <c r="F15">
-        <v>0.6404703130826073</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="G15">
-        <v>0.002043168524354677</v>
+        <v>0.0037430372</v>
       </c>
       <c r="H15">
-        <v>0.002803107489512052</v>
+        <v>0.0025420957</v>
       </c>
       <c r="I15">
-        <v>2.268916713792476</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="J15">
-        <v>-0.0002872047814168316</v>
+        <v>30.381976</v>
       </c>
       <c r="K15">
-        <v>0.6404703130826073</v>
+        <v>30.381976</v>
       </c>
       <c r="L15">
-        <v>1.249658272177324</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M15">
-        <v>0.6246855336979534</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N15">
-        <v>0.6246855336979534</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O15">
-        <v>0.417391391628473</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P15">
-        <v>0.6299471268261714</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q15">
-        <v>0.6299471268261714</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R15">
-        <v>0.6325779233902804</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S15">
-        <v>0.6325779233902804</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T15">
-        <v>0.6939340617141428</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.00846407776164</v>
+        <v>60.759821</v>
       </c>
       <c r="D16">
-        <v>1.031138069688351</v>
+        <v>0.0030969418</v>
       </c>
       <c r="E16">
-        <v>0.990875926553519</v>
+        <v>60.759821</v>
       </c>
       <c r="F16">
-        <v>1.00846407776164</v>
+        <v>-0.0064332714</v>
       </c>
       <c r="G16">
-        <v>1.03415501012983</v>
+        <v>-0.0045788157</v>
       </c>
       <c r="H16">
-        <v>1.002512455826429</v>
+        <v>0.013834371</v>
       </c>
       <c r="I16">
-        <v>1.000358629573475</v>
+        <v>0.0062360681</v>
       </c>
       <c r="J16">
-        <v>1.031138069688351</v>
+        <v>0.0030969418</v>
       </c>
       <c r="K16">
-        <v>1.00846407776164</v>
+        <v>0.0030969418</v>
       </c>
       <c r="L16">
-        <v>0.990875926553519</v>
+        <v>-0.0064332714</v>
       </c>
       <c r="M16">
-        <v>1.011006998120935</v>
+        <v>30.3766938643</v>
       </c>
       <c r="N16">
-        <v>1.011006998120935</v>
+        <v>30.3766938643</v>
       </c>
       <c r="O16">
-        <v>1.008175484022766</v>
+        <v>20.25574069986667</v>
       </c>
       <c r="P16">
-        <v>1.01015935800117</v>
+        <v>20.2521615568</v>
       </c>
       <c r="Q16">
-        <v>1.01015935800117</v>
+        <v>20.2521615568</v>
       </c>
       <c r="R16">
-        <v>1.009735537941288</v>
+        <v>15.18989540305</v>
       </c>
       <c r="S16">
-        <v>1.009735537941288</v>
+        <v>15.18989540305</v>
       </c>
       <c r="T16">
-        <v>1.011250694922208</v>
+        <v>10.12866271563333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.041983523853957</v>
+        <v>0.00071394091</v>
       </c>
       <c r="D17">
-        <v>0.9392753328647228</v>
+        <v>0.00367841</v>
       </c>
       <c r="E17">
-        <v>1.01335080087699</v>
+        <v>0.00071394091</v>
       </c>
       <c r="F17">
-        <v>1.041983523853957</v>
+        <v>7.0560231</v>
       </c>
       <c r="G17">
-        <v>0.9354736755735485</v>
+        <v>0.26766029</v>
       </c>
       <c r="H17">
-        <v>1.000888885386467</v>
+        <v>-0.0044875526</v>
       </c>
       <c r="I17">
-        <v>0.996088436870512</v>
+        <v>0.007026137</v>
       </c>
       <c r="J17">
-        <v>0.9392753328647228</v>
+        <v>0.00367841</v>
       </c>
       <c r="K17">
-        <v>1.041983523853957</v>
+        <v>0.00367841</v>
       </c>
       <c r="L17">
-        <v>1.01335080087699</v>
+        <v>7.0560231</v>
       </c>
       <c r="M17">
-        <v>0.9763130668708564</v>
+        <v>3.528368520455</v>
       </c>
       <c r="N17">
-        <v>0.9763130668708564</v>
+        <v>3.528368520455</v>
       </c>
       <c r="O17">
-        <v>0.9845050063760598</v>
+        <v>2.350749829436667</v>
       </c>
       <c r="P17">
-        <v>0.9982032191985565</v>
+        <v>2.35347181697</v>
       </c>
       <c r="Q17">
-        <v>0.9982032191985565</v>
+        <v>2.35347181697</v>
       </c>
       <c r="R17">
-        <v>1.009148295362407</v>
+        <v>1.7660234652275</v>
       </c>
       <c r="S17">
-        <v>1.009148295362407</v>
+        <v>1.7660234652275</v>
       </c>
       <c r="T17">
-        <v>0.9878434425710326</v>
+        <v>1.221769054218333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.073391139703798</v>
+        <v>3.546992908578082</v>
       </c>
       <c r="D18">
-        <v>1.093415462203176</v>
+        <v>2.190735432625203</v>
       </c>
       <c r="E18">
-        <v>1.027181740133787</v>
+        <v>3.546992908578082</v>
       </c>
       <c r="F18">
-        <v>1.073391139703798</v>
+        <v>1.775332564508494</v>
       </c>
       <c r="G18">
-        <v>1.270726086653936</v>
+        <v>0.1322031380882192</v>
       </c>
       <c r="H18">
-        <v>1.018729694742852</v>
+        <v>0.03338700197178082</v>
       </c>
       <c r="I18">
-        <v>0.9980522778935986</v>
+        <v>5.319466521345481</v>
       </c>
       <c r="J18">
-        <v>1.093415462203176</v>
+        <v>2.190735432625203</v>
       </c>
       <c r="K18">
-        <v>1.073391139703798</v>
+        <v>2.190735432625203</v>
       </c>
       <c r="L18">
-        <v>1.027181740133787</v>
+        <v>1.775332564508494</v>
       </c>
       <c r="M18">
-        <v>1.060298601168482</v>
+        <v>2.661162736543288</v>
       </c>
       <c r="N18">
-        <v>1.060298601168482</v>
+        <v>2.661162736543288</v>
       </c>
       <c r="O18">
-        <v>1.046442299026605</v>
+        <v>1.785237491686119</v>
       </c>
       <c r="P18">
-        <v>1.064662780680254</v>
+        <v>2.50435363523726</v>
       </c>
       <c r="Q18">
-        <v>1.064662780680254</v>
+        <v>2.50435363523726</v>
       </c>
       <c r="R18">
-        <v>1.06684487043614</v>
+        <v>2.425949084584246</v>
       </c>
       <c r="S18">
-        <v>1.06684487043614</v>
+        <v>2.425949084584246</v>
       </c>
       <c r="T18">
-        <v>1.080249400221858</v>
+        <v>2.166352927852877</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.032145961755988</v>
+        <v>5.005963437736842</v>
       </c>
       <c r="D19">
-        <v>1.735676444818943</v>
+        <v>2.504103374543155</v>
       </c>
       <c r="E19">
-        <v>1.151630798566349</v>
+        <v>5.005963437736842</v>
       </c>
       <c r="F19">
-        <v>1.032145961755988</v>
+        <v>1.705068172310526</v>
       </c>
       <c r="G19">
-        <v>1.411558137575153</v>
+        <v>0.1269133485031579</v>
       </c>
       <c r="H19">
-        <v>0.9550907031169384</v>
+        <v>0.03246660502157895</v>
       </c>
       <c r="I19">
-        <v>1.057636092121319</v>
+        <v>5.109614947677895</v>
       </c>
       <c r="J19">
-        <v>1.735676444818943</v>
+        <v>2.504103374543155</v>
       </c>
       <c r="K19">
-        <v>1.032145961755988</v>
+        <v>2.504103374543155</v>
       </c>
       <c r="L19">
-        <v>1.151630798566349</v>
+        <v>1.705068172310526</v>
       </c>
       <c r="M19">
-        <v>1.443653621692646</v>
+        <v>3.355515805023684</v>
       </c>
       <c r="N19">
-        <v>1.443653621692646</v>
+        <v>3.355515805023684</v>
       </c>
       <c r="O19">
-        <v>1.280799315500744</v>
+        <v>2.247832738356316</v>
       </c>
       <c r="P19">
-        <v>1.30648440171376</v>
+        <v>3.071711661530175</v>
       </c>
       <c r="Q19">
-        <v>1.30648440171376</v>
+        <v>3.071711661530174</v>
       </c>
       <c r="R19">
-        <v>1.237899791724317</v>
+        <v>2.929809589783419</v>
       </c>
       <c r="S19">
-        <v>1.237899791724317</v>
+        <v>2.929809589783419</v>
       </c>
       <c r="T19">
-        <v>1.223956356325782</v>
+        <v>2.414021647632192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>6.814890419515787</v>
+      </c>
+      <c r="D20">
+        <v>5.005990693075261</v>
+      </c>
+      <c r="E20">
+        <v>6.814890419515787</v>
+      </c>
+      <c r="F20">
+        <v>0.000953589023157895</v>
+      </c>
+      <c r="G20">
+        <v>0.005181390923157896</v>
+      </c>
+      <c r="H20">
+        <v>3.406636220694736</v>
+      </c>
+      <c r="I20">
+        <v>-0.001357140015789474</v>
+      </c>
+      <c r="J20">
+        <v>5.005990693075261</v>
+      </c>
+      <c r="K20">
+        <v>5.005990693075261</v>
+      </c>
+      <c r="L20">
+        <v>0.000953589023157895</v>
+      </c>
+      <c r="M20">
+        <v>3.407922004269472</v>
+      </c>
+      <c r="N20">
+        <v>3.407922004269472</v>
+      </c>
+      <c r="O20">
+        <v>3.407493409744561</v>
+      </c>
+      <c r="P20">
+        <v>3.940611567204735</v>
+      </c>
+      <c r="Q20">
+        <v>3.940611567204735</v>
+      </c>
+      <c r="R20">
+        <v>4.206956348672366</v>
+      </c>
+      <c r="S20">
+        <v>4.206956348672366</v>
+      </c>
+      <c r="T20">
+        <v>2.538715862202718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>-3.824127051843039E-05</v>
+      </c>
+      <c r="D21">
+        <v>0.0009851134224001727</v>
+      </c>
+      <c r="E21">
+        <v>-3.824127051843039E-05</v>
+      </c>
+      <c r="F21">
+        <v>1.309209376322906</v>
+      </c>
+      <c r="G21">
+        <v>0.3961782963993183</v>
+      </c>
+      <c r="H21">
+        <v>0.0003874337007359263</v>
+      </c>
+      <c r="I21">
+        <v>1.089884389547289</v>
+      </c>
+      <c r="J21">
+        <v>0.0009851134224001727</v>
+      </c>
+      <c r="K21">
+        <v>0.0009851134224001727</v>
+      </c>
+      <c r="L21">
+        <v>1.309209376322906</v>
+      </c>
+      <c r="M21">
+        <v>0.6545855675261937</v>
+      </c>
+      <c r="N21">
+        <v>0.6545855675261937</v>
+      </c>
+      <c r="O21">
+        <v>0.4365195229177077</v>
+      </c>
+      <c r="P21">
+        <v>0.4367187494915958</v>
+      </c>
+      <c r="Q21">
+        <v>0.4367187494915958</v>
+      </c>
+      <c r="R21">
+        <v>0.3277853404742969</v>
+      </c>
+      <c r="S21">
+        <v>0.3277853404742969</v>
+      </c>
+      <c r="T21">
+        <v>0.4661010613536885</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>-0.0002872047814168314</v>
+      </c>
+      <c r="D22">
+        <v>0.6404703130826073</v>
+      </c>
+      <c r="E22">
+        <v>-0.0002872047814168314</v>
+      </c>
+      <c r="F22">
+        <v>1.249658272177324</v>
+      </c>
+      <c r="G22">
+        <v>2.268916713792476</v>
+      </c>
+      <c r="H22">
+        <v>0.002803107489512051</v>
+      </c>
+      <c r="I22">
+        <v>0.002043168524354677</v>
+      </c>
+      <c r="J22">
+        <v>0.6404703130826073</v>
+      </c>
+      <c r="K22">
+        <v>0.6404703130826073</v>
+      </c>
+      <c r="L22">
+        <v>1.249658272177324</v>
+      </c>
+      <c r="M22">
+        <v>0.6246855336979534</v>
+      </c>
+      <c r="N22">
+        <v>0.6246855336979534</v>
+      </c>
+      <c r="O22">
+        <v>0.417391391628473</v>
+      </c>
+      <c r="P22">
+        <v>0.6299471268261714</v>
+      </c>
+      <c r="Q22">
+        <v>0.6299471268261714</v>
+      </c>
+      <c r="R22">
+        <v>0.6325779233902804</v>
+      </c>
+      <c r="S22">
+        <v>0.6325779233902804</v>
+      </c>
+      <c r="T22">
+        <v>0.6939340617141428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.002303868019616867</v>
+      </c>
+      <c r="D23">
+        <v>0.04323703425391151</v>
+      </c>
+      <c r="E23">
+        <v>0.002303868019616867</v>
+      </c>
+      <c r="F23">
+        <v>1.478040375546567</v>
+      </c>
+      <c r="G23">
+        <v>1.437118756671864</v>
+      </c>
+      <c r="H23">
+        <v>0.7438671392546323</v>
+      </c>
+      <c r="I23">
+        <v>0.04493336651283093</v>
+      </c>
+      <c r="J23">
+        <v>0.04323703425391151</v>
+      </c>
+      <c r="K23">
+        <v>0.04323703425391151</v>
+      </c>
+      <c r="L23">
+        <v>1.478040375546567</v>
+      </c>
+      <c r="M23">
+        <v>0.7401721217830917</v>
+      </c>
+      <c r="N23">
+        <v>0.7401721217830917</v>
+      </c>
+      <c r="O23">
+        <v>0.7414037942736051</v>
+      </c>
+      <c r="P23">
+        <v>0.5078604259400316</v>
+      </c>
+      <c r="Q23">
+        <v>0.5078604259400317</v>
+      </c>
+      <c r="R23">
+        <v>0.3917045780185016</v>
+      </c>
+      <c r="S23">
+        <v>0.3917045780185016</v>
+      </c>
+      <c r="T23">
+        <v>0.6249167567099038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>2.359723982081754</v>
+      </c>
+      <c r="D24">
+        <v>2.195642819680752</v>
+      </c>
+      <c r="E24">
+        <v>2.359723982081754</v>
+      </c>
+      <c r="F24">
+        <v>0.06129398204745091</v>
+      </c>
+      <c r="G24">
+        <v>0.4768826445781505</v>
+      </c>
+      <c r="H24">
+        <v>1.253314960072906</v>
+      </c>
+      <c r="I24">
+        <v>2.989604547419955</v>
+      </c>
+      <c r="J24">
+        <v>2.195642819680752</v>
+      </c>
+      <c r="K24">
+        <v>2.195642819680752</v>
+      </c>
+      <c r="L24">
+        <v>0.06129398204745091</v>
+      </c>
+      <c r="M24">
+        <v>1.210508982064603</v>
+      </c>
+      <c r="N24">
+        <v>1.210508982064603</v>
+      </c>
+      <c r="O24">
+        <v>1.224777641400704</v>
+      </c>
+      <c r="P24">
+        <v>1.538886927936653</v>
+      </c>
+      <c r="Q24">
+        <v>1.538886927936652</v>
+      </c>
+      <c r="R24">
+        <v>1.703075900872677</v>
+      </c>
+      <c r="S24">
+        <v>1.703075900872677</v>
+      </c>
+      <c r="T24">
+        <v>1.556077155980161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>7.670671026192249</v>
+      </c>
+      <c r="D25">
+        <v>5.389801887792598E-05</v>
+      </c>
+      <c r="E25">
+        <v>7.670671026192249</v>
+      </c>
+      <c r="F25">
+        <v>0.001994453787480646</v>
+      </c>
+      <c r="G25">
+        <v>0.002627192334961447</v>
+      </c>
+      <c r="H25">
+        <v>2.225291216432351</v>
+      </c>
+      <c r="I25">
+        <v>-0.0001223677793042239</v>
+      </c>
+      <c r="J25">
+        <v>5.389801887792598E-05</v>
+      </c>
+      <c r="K25">
+        <v>5.389801887792598E-05</v>
+      </c>
+      <c r="L25">
+        <v>0.001994453787480646</v>
+      </c>
+      <c r="M25">
+        <v>3.836332739989865</v>
+      </c>
+      <c r="N25">
+        <v>3.836332739989865</v>
+      </c>
+      <c r="O25">
+        <v>3.299318898804027</v>
+      </c>
+      <c r="P25">
+        <v>2.557573125999536</v>
+      </c>
+      <c r="Q25">
+        <v>2.557573125999536</v>
+      </c>
+      <c r="R25">
+        <v>1.918193319004371</v>
+      </c>
+      <c r="S25">
+        <v>1.918193319004371</v>
+      </c>
+      <c r="T25">
+        <v>1.650085903164435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.01254785470251994</v>
+      </c>
+      <c r="D26">
+        <v>0.2434722769436249</v>
+      </c>
+      <c r="E26">
+        <v>0.01254785470251994</v>
+      </c>
+      <c r="F26">
+        <v>1.467031158322027</v>
+      </c>
+      <c r="G26">
+        <v>1.055946429035</v>
+      </c>
+      <c r="H26">
+        <v>1.951167112277632</v>
+      </c>
+      <c r="I26">
+        <v>-0.0002503768792746612</v>
+      </c>
+      <c r="J26">
+        <v>0.2434722769436249</v>
+      </c>
+      <c r="K26">
+        <v>0.2434722769436249</v>
+      </c>
+      <c r="L26">
+        <v>1.467031158322027</v>
+      </c>
+      <c r="M26">
+        <v>0.7397895065122733</v>
+      </c>
+      <c r="N26">
+        <v>0.7397895065122733</v>
+      </c>
+      <c r="O26">
+        <v>1.143582041767393</v>
+      </c>
+      <c r="P26">
+        <v>0.5743504299893906</v>
+      </c>
+      <c r="Q26">
+        <v>0.5743504299893906</v>
+      </c>
+      <c r="R26">
+        <v>0.4916308917279492</v>
+      </c>
+      <c r="S26">
+        <v>0.4916308917279492</v>
+      </c>
+      <c r="T26">
+        <v>0.7883190757335882</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.06394563297129448</v>
+      </c>
+      <c r="D27">
+        <v>1.837449966578746</v>
+      </c>
+      <c r="E27">
+        <v>0.06394563297129448</v>
+      </c>
+      <c r="F27">
+        <v>1.749504689973967</v>
+      </c>
+      <c r="G27">
+        <v>0.2677660244023903</v>
+      </c>
+      <c r="H27">
+        <v>1.712282394985681</v>
+      </c>
+      <c r="I27">
+        <v>2.807955566646429</v>
+      </c>
+      <c r="J27">
+        <v>1.837449966578746</v>
+      </c>
+      <c r="K27">
+        <v>1.837449966578746</v>
+      </c>
+      <c r="L27">
+        <v>1.749504689973967</v>
+      </c>
+      <c r="M27">
+        <v>0.9067251614726306</v>
+      </c>
+      <c r="N27">
+        <v>0.9067251614726306</v>
+      </c>
+      <c r="O27">
+        <v>1.175244239310314</v>
+      </c>
+      <c r="P27">
+        <v>1.216966763174669</v>
+      </c>
+      <c r="Q27">
+        <v>1.216966763174669</v>
+      </c>
+      <c r="R27">
+        <v>1.372087564025688</v>
+      </c>
+      <c r="S27">
+        <v>1.372087564025688</v>
+      </c>
+      <c r="T27">
+        <v>1.406484045926418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.3143834722652213</v>
+      </c>
+      <c r="D28">
+        <v>1.286064911523321</v>
+      </c>
+      <c r="E28">
+        <v>0.3143834722652213</v>
+      </c>
+      <c r="F28">
+        <v>2.889582195113618</v>
+      </c>
+      <c r="G28">
+        <v>0.2563354225042173</v>
+      </c>
+      <c r="H28">
+        <v>3.158382722944837</v>
+      </c>
+      <c r="I28">
+        <v>1.777564034226109</v>
+      </c>
+      <c r="J28">
+        <v>1.286064911523321</v>
+      </c>
+      <c r="K28">
+        <v>1.286064911523321</v>
+      </c>
+      <c r="L28">
+        <v>2.889582195113618</v>
+      </c>
+      <c r="M28">
+        <v>1.60198283368942</v>
+      </c>
+      <c r="N28">
+        <v>1.60198283368942</v>
+      </c>
+      <c r="O28">
+        <v>2.120782796774559</v>
+      </c>
+      <c r="P28">
+        <v>1.496676859634054</v>
+      </c>
+      <c r="Q28">
+        <v>1.496676859634054</v>
+      </c>
+      <c r="R28">
+        <v>1.44402387260637</v>
+      </c>
+      <c r="S28">
+        <v>1.44402387260637</v>
+      </c>
+      <c r="T28">
+        <v>1.61371879309622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.09220480500707605</v>
+      </c>
+      <c r="D29">
+        <v>-0.0002502693759165196</v>
+      </c>
+      <c r="E29">
+        <v>0.09220480500707605</v>
+      </c>
+      <c r="F29">
+        <v>6.441354482008609</v>
+      </c>
+      <c r="G29">
+        <v>0.2839216249401209</v>
+      </c>
+      <c r="H29">
+        <v>3.58399353888067</v>
+      </c>
+      <c r="I29">
+        <v>0.01071581820318574</v>
+      </c>
+      <c r="J29">
+        <v>-0.0002502693759165196</v>
+      </c>
+      <c r="K29">
+        <v>-0.0002502693759165196</v>
+      </c>
+      <c r="L29">
+        <v>6.441354482008609</v>
+      </c>
+      <c r="M29">
+        <v>3.266779643507843</v>
+      </c>
+      <c r="N29">
+        <v>3.266779643507843</v>
+      </c>
+      <c r="O29">
+        <v>3.372517608632119</v>
+      </c>
+      <c r="P29">
+        <v>2.17776967254659</v>
+      </c>
+      <c r="Q29">
+        <v>2.17776967254659</v>
+      </c>
+      <c r="R29">
+        <v>1.633264687065963</v>
+      </c>
+      <c r="S29">
+        <v>1.633264687065963</v>
+      </c>
+      <c r="T29">
+        <v>1.735323333277291</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3.048604344375596</v>
+        <v>0.8337312075554735</v>
       </c>
       <c r="D4">
-        <v>0.8481479666743492</v>
+        <v>2.420664138413133</v>
       </c>
       <c r="E4">
-        <v>3.048604344375596</v>
+        <v>0.8337312075554735</v>
       </c>
       <c r="F4">
-        <v>0.8577481819861622</v>
+        <v>0.8960555884495885</v>
       </c>
       <c r="G4">
-        <v>0.8195701054735142</v>
+        <v>0.9551811238642555</v>
       </c>
       <c r="H4">
-        <v>1.128040395823614</v>
+        <v>0.864071541251313</v>
       </c>
       <c r="I4">
-        <v>0.8756984645642418</v>
+        <v>0.9019165947809078</v>
       </c>
       <c r="J4">
-        <v>0.8481479666743492</v>
+        <v>2.420664138413133</v>
       </c>
       <c r="K4">
-        <v>0.8481479666743492</v>
+        <v>2.420664138413133</v>
       </c>
       <c r="L4">
-        <v>0.8577481819861622</v>
+        <v>0.8960555884495885</v>
       </c>
       <c r="M4">
-        <v>1.953176263180879</v>
+        <v>0.8648933980025311</v>
       </c>
       <c r="N4">
-        <v>1.953176263180879</v>
+        <v>0.8648933980025311</v>
       </c>
       <c r="O4">
-        <v>1.678130974061791</v>
+        <v>0.8646194457521251</v>
       </c>
       <c r="P4">
-        <v>1.584833497678702</v>
+        <v>1.383483644806065</v>
       </c>
       <c r="Q4">
-        <v>1.584833497678702</v>
+        <v>1.383483644806065</v>
       </c>
       <c r="R4">
-        <v>1.400662114927614</v>
+        <v>1.642778768207832</v>
       </c>
       <c r="S4">
-        <v>1.400662114927614</v>
+        <v>1.642778768207832</v>
       </c>
       <c r="T4">
-        <v>1.262968243149579</v>
+        <v>1.145270032385779</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9489161448491406</v>
+        <v>7.534309376696232</v>
       </c>
       <c r="D5">
-        <v>3.16238014435602</v>
+        <v>2.743938715707924</v>
       </c>
       <c r="E5">
-        <v>0.9489161448491406</v>
+        <v>7.534309376696232</v>
       </c>
       <c r="F5">
-        <v>0.8762275241536016</v>
+        <v>0.001114398941928359</v>
       </c>
       <c r="G5">
-        <v>0.8979585794831105</v>
+        <v>0.005261557470809857</v>
       </c>
       <c r="H5">
-        <v>0.8559027991708632</v>
+        <v>3.763557524067827</v>
       </c>
       <c r="I5">
-        <v>0.9569372879837102</v>
+        <v>-0.001036395617686015</v>
       </c>
       <c r="J5">
-        <v>3.16238014435602</v>
+        <v>2.743938715707924</v>
       </c>
       <c r="K5">
-        <v>3.16238014435602</v>
+        <v>2.743938715707924</v>
       </c>
       <c r="L5">
-        <v>0.8762275241536016</v>
+        <v>0.001114398941928359</v>
       </c>
       <c r="M5">
-        <v>0.9125718345013711</v>
+        <v>3.76771188781908</v>
       </c>
       <c r="N5">
-        <v>0.9125718345013711</v>
+        <v>3.76771188781908</v>
       </c>
       <c r="O5">
-        <v>0.8936821560578685</v>
+        <v>3.766327099901996</v>
       </c>
       <c r="P5">
-        <v>1.662507937786254</v>
+        <v>3.426454163782028</v>
       </c>
       <c r="Q5">
-        <v>1.662507937786254</v>
+        <v>3.426454163782028</v>
       </c>
       <c r="R5">
-        <v>2.037475989428696</v>
+        <v>3.255825301763502</v>
       </c>
       <c r="S5">
-        <v>2.037475989428696</v>
+        <v>3.255825301763502</v>
       </c>
       <c r="T5">
-        <v>1.283053746666074</v>
+        <v>2.341190862877839</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4125646662036762</v>
+        <v>3.048604344375596</v>
       </c>
       <c r="D6">
-        <v>16.39057746064753</v>
+        <v>0.8481479666743492</v>
       </c>
       <c r="E6">
-        <v>0.4125646662036762</v>
+        <v>3.048604344375596</v>
       </c>
       <c r="F6">
-        <v>0.4497217933866716</v>
+        <v>0.8577481819861622</v>
       </c>
       <c r="G6">
-        <v>0.4798829391577679</v>
+        <v>0.8195701054735142</v>
       </c>
       <c r="H6">
-        <v>0.4322616215945262</v>
+        <v>1.128040395823614</v>
       </c>
       <c r="I6">
-        <v>0.4222862741407042</v>
+        <v>0.8756984645642418</v>
       </c>
       <c r="J6">
-        <v>16.39057746064753</v>
+        <v>0.8481479666743492</v>
       </c>
       <c r="K6">
-        <v>16.39057746064753</v>
+        <v>0.8481479666743492</v>
       </c>
       <c r="L6">
-        <v>0.4497217933866716</v>
+        <v>0.8577481819861622</v>
       </c>
       <c r="M6">
-        <v>0.4311432297951739</v>
+        <v>1.953176263180879</v>
       </c>
       <c r="N6">
-        <v>0.4311432297951739</v>
+        <v>1.953176263180879</v>
       </c>
       <c r="O6">
-        <v>0.4315160270616247</v>
+        <v>1.678130974061791</v>
       </c>
       <c r="P6">
-        <v>5.750954640079293</v>
+        <v>1.584833497678702</v>
       </c>
       <c r="Q6">
-        <v>5.750954640079293</v>
+        <v>1.584833497678702</v>
       </c>
       <c r="R6">
-        <v>8.410860345221352</v>
+        <v>1.400662114927614</v>
       </c>
       <c r="S6">
-        <v>8.410860345221352</v>
+        <v>1.400662114927614</v>
       </c>
       <c r="T6">
-        <v>3.097882459188479</v>
+        <v>1.262968243149579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.113441287860716</v>
+        <v>0.9489161448491406</v>
       </c>
       <c r="D7">
-        <v>1.032768272421137</v>
+        <v>3.16238014435602</v>
       </c>
       <c r="E7">
-        <v>1.113441287860716</v>
+        <v>0.9489161448491406</v>
       </c>
       <c r="F7">
-        <v>1.027234540520978</v>
+        <v>0.8762275241536016</v>
       </c>
       <c r="G7">
-        <v>0.9623057692794994</v>
+        <v>0.8979585794831105</v>
       </c>
       <c r="H7">
-        <v>0.9684987115197976</v>
+        <v>0.8559027991708632</v>
       </c>
       <c r="I7">
-        <v>1.174083071690662</v>
+        <v>0.9569372879837102</v>
       </c>
       <c r="J7">
-        <v>1.032768272421137</v>
+        <v>3.16238014435602</v>
       </c>
       <c r="K7">
-        <v>1.032768272421137</v>
+        <v>3.16238014435602</v>
       </c>
       <c r="L7">
-        <v>1.027234540520978</v>
+        <v>0.8762275241536016</v>
       </c>
       <c r="M7">
-        <v>1.070337914190847</v>
+        <v>0.9125718345013711</v>
       </c>
       <c r="N7">
-        <v>1.070337914190847</v>
+        <v>0.9125718345013711</v>
       </c>
       <c r="O7">
-        <v>1.036391513300497</v>
+        <v>0.8936821560578685</v>
       </c>
       <c r="P7">
-        <v>1.05781470026761</v>
+        <v>1.662507937786254</v>
       </c>
       <c r="Q7">
-        <v>1.05781470026761</v>
+        <v>1.662507937786254</v>
       </c>
       <c r="R7">
-        <v>1.051553093305992</v>
+        <v>2.037475989428696</v>
       </c>
       <c r="S7">
-        <v>1.051553093305992</v>
+        <v>2.037475989428696</v>
       </c>
       <c r="T7">
-        <v>1.046388608882131</v>
+        <v>1.283053746666074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9392753328647234</v>
+        <v>0.4125646662036762</v>
       </c>
       <c r="D8">
-        <v>1.041983523853957</v>
+        <v>16.39057746064753</v>
       </c>
       <c r="E8">
-        <v>0.9392753328647234</v>
+        <v>0.4125646662036762</v>
       </c>
       <c r="F8">
-        <v>1.013350800876991</v>
+        <v>0.4497217933866716</v>
       </c>
       <c r="G8">
-        <v>0.9960884368705112</v>
+        <v>0.4798829391577679</v>
       </c>
       <c r="H8">
-        <v>1.000888885386465</v>
+        <v>0.4322616215945262</v>
       </c>
       <c r="I8">
-        <v>0.9354736755735502</v>
+        <v>0.4222862741407042</v>
       </c>
       <c r="J8">
-        <v>1.041983523853957</v>
+        <v>16.39057746064753</v>
       </c>
       <c r="K8">
-        <v>1.041983523853957</v>
+        <v>16.39057746064753</v>
       </c>
       <c r="L8">
-        <v>1.013350800876991</v>
+        <v>0.4497217933866716</v>
       </c>
       <c r="M8">
-        <v>0.9763130668708572</v>
+        <v>0.4311432297951739</v>
       </c>
       <c r="N8">
-        <v>0.9763130668708572</v>
+        <v>0.4311432297951739</v>
       </c>
       <c r="O8">
-        <v>0.98450500637606</v>
+        <v>0.4315160270616247</v>
       </c>
       <c r="P8">
-        <v>0.9982032191985569</v>
+        <v>5.750954640079293</v>
       </c>
       <c r="Q8">
-        <v>0.9982032191985569</v>
+        <v>5.750954640079293</v>
       </c>
       <c r="R8">
-        <v>1.009148295362407</v>
+        <v>8.410860345221352</v>
       </c>
       <c r="S8">
-        <v>1.009148295362407</v>
+        <v>8.410860345221352</v>
       </c>
       <c r="T8">
-        <v>0.987843442571033</v>
+        <v>3.097882459188479</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.210728614005556</v>
+        <v>1.113441287860716</v>
       </c>
       <c r="D9">
-        <v>1.101847130511523</v>
+        <v>1.032768272421137</v>
       </c>
       <c r="E9">
-        <v>1.210728614005556</v>
+        <v>1.113441287860716</v>
       </c>
       <c r="F9">
-        <v>1.055484369385754</v>
+        <v>1.027234540520978</v>
       </c>
       <c r="G9">
-        <v>0.9642660778151785</v>
+        <v>0.9623057692794994</v>
       </c>
       <c r="H9">
-        <v>0.9214055545644101</v>
+        <v>0.9684987115197976</v>
       </c>
       <c r="I9">
-        <v>1.4201230499714</v>
+        <v>1.174083071690662</v>
       </c>
       <c r="J9">
-        <v>1.101847130511523</v>
+        <v>1.032768272421137</v>
       </c>
       <c r="K9">
-        <v>1.101847130511523</v>
+        <v>1.032768272421137</v>
       </c>
       <c r="L9">
-        <v>1.055484369385754</v>
+        <v>1.027234540520978</v>
       </c>
       <c r="M9">
-        <v>1.133106491695655</v>
+        <v>1.070337914190847</v>
       </c>
       <c r="N9">
-        <v>1.133106491695655</v>
+        <v>1.070337914190847</v>
       </c>
       <c r="O9">
-        <v>1.062539512651907</v>
+        <v>1.036391513300497</v>
       </c>
       <c r="P9">
-        <v>1.122686704634278</v>
+        <v>1.05781470026761</v>
       </c>
       <c r="Q9">
-        <v>1.122686704634278</v>
+        <v>1.05781470026761</v>
       </c>
       <c r="R9">
-        <v>1.117476811103589</v>
+        <v>1.051553093305992</v>
       </c>
       <c r="S9">
-        <v>1.117476811103589</v>
+        <v>1.051553093305992</v>
       </c>
       <c r="T9">
-        <v>1.11230913270897</v>
+        <v>1.046388608882131</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4538082553536477</v>
+        <v>0.9392753328647234</v>
       </c>
       <c r="D10">
-        <v>16.72869279735959</v>
+        <v>1.041983523853957</v>
       </c>
       <c r="E10">
-        <v>0.4538082553536477</v>
+        <v>0.9392753328647234</v>
       </c>
       <c r="F10">
-        <v>0.4075985438593305</v>
+        <v>1.013350800876991</v>
       </c>
       <c r="G10">
-        <v>0.4594950147539089</v>
+        <v>0.9960884368705112</v>
       </c>
       <c r="H10">
-        <v>0.4187421654799074</v>
+        <v>1.000888885386465</v>
       </c>
       <c r="I10">
-        <v>0.4150943455699365</v>
+        <v>0.9354736755735502</v>
       </c>
       <c r="J10">
-        <v>16.72869279735959</v>
+        <v>1.041983523853957</v>
       </c>
       <c r="K10">
-        <v>16.72869279735959</v>
+        <v>1.041983523853957</v>
       </c>
       <c r="L10">
-        <v>0.4075985438593305</v>
+        <v>1.013350800876991</v>
       </c>
       <c r="M10">
-        <v>0.4307033996064891</v>
+        <v>0.9763130668708572</v>
       </c>
       <c r="N10">
-        <v>0.4307033996064891</v>
+        <v>0.9763130668708572</v>
       </c>
       <c r="O10">
-        <v>0.4267163215642952</v>
+        <v>0.98450500637606</v>
       </c>
       <c r="P10">
-        <v>5.863366532190856</v>
+        <v>0.9982032191985569</v>
       </c>
       <c r="Q10">
-        <v>5.863366532190855</v>
+        <v>0.9982032191985569</v>
       </c>
       <c r="R10">
-        <v>8.579698098483039</v>
+        <v>1.009148295362407</v>
       </c>
       <c r="S10">
-        <v>8.579698098483039</v>
+        <v>1.009148295362407</v>
       </c>
       <c r="T10">
-        <v>3.147238520396053</v>
+        <v>0.987843442571033</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.261204531080033</v>
+        <v>1.210728614005556</v>
       </c>
       <c r="D11">
-        <v>1.020380074334446</v>
+        <v>1.101847130511523</v>
       </c>
       <c r="E11">
-        <v>3.261204531080033</v>
+        <v>1.210728614005556</v>
       </c>
       <c r="F11">
-        <v>0.6279185407726234</v>
+        <v>1.055484369385754</v>
       </c>
       <c r="G11">
-        <v>0.7214433161865669</v>
+        <v>0.9642660778151785</v>
       </c>
       <c r="H11">
-        <v>1.39575443444137</v>
+        <v>0.9214055545644101</v>
       </c>
       <c r="I11">
-        <v>0.5595652840934555</v>
+        <v>1.4201230499714</v>
       </c>
       <c r="J11">
-        <v>1.020380074334446</v>
+        <v>1.101847130511523</v>
       </c>
       <c r="K11">
-        <v>1.020380074334446</v>
+        <v>1.101847130511523</v>
       </c>
       <c r="L11">
-        <v>0.6279185407726234</v>
+        <v>1.055484369385754</v>
       </c>
       <c r="M11">
-        <v>1.944561535926328</v>
+        <v>1.133106491695655</v>
       </c>
       <c r="N11">
-        <v>1.944561535926328</v>
+        <v>1.133106491695655</v>
       </c>
       <c r="O11">
-        <v>1.761625835431342</v>
+        <v>1.062539512651907</v>
       </c>
       <c r="P11">
-        <v>1.636501048729034</v>
+        <v>1.122686704634278</v>
       </c>
       <c r="Q11">
-        <v>1.636501048729034</v>
+        <v>1.122686704634278</v>
       </c>
       <c r="R11">
-        <v>1.482470805130387</v>
+        <v>1.117476811103589</v>
       </c>
       <c r="S11">
-        <v>1.482470805130387</v>
+        <v>1.117476811103589</v>
       </c>
       <c r="T11">
-        <v>1.264377696818082</v>
+        <v>1.11230913270897</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9598463787831661</v>
+        <v>0.4538082553536477</v>
       </c>
       <c r="D12">
-        <v>4.183999298255401</v>
+        <v>16.72869279735959</v>
       </c>
       <c r="E12">
-        <v>0.9598463787831661</v>
+        <v>0.4538082553536477</v>
       </c>
       <c r="F12">
-        <v>0.7603920160813018</v>
+        <v>0.4075985438593305</v>
       </c>
       <c r="G12">
-        <v>0.8627305261328262</v>
+        <v>0.4594950147539089</v>
       </c>
       <c r="H12">
-        <v>0.8361496675675332</v>
+        <v>0.4187421654799074</v>
       </c>
       <c r="I12">
-        <v>0.7583303696573928</v>
+        <v>0.4150943455699365</v>
       </c>
       <c r="J12">
-        <v>4.183999298255401</v>
+        <v>16.72869279735959</v>
       </c>
       <c r="K12">
-        <v>4.183999298255401</v>
+        <v>16.72869279735959</v>
       </c>
       <c r="L12">
-        <v>0.7603920160813018</v>
+        <v>0.4075985438593305</v>
       </c>
       <c r="M12">
-        <v>0.860119197432234</v>
+        <v>0.4307033996064891</v>
       </c>
       <c r="N12">
-        <v>0.860119197432234</v>
+        <v>0.4307033996064891</v>
       </c>
       <c r="O12">
-        <v>0.8521293541440004</v>
+        <v>0.4267163215642952</v>
       </c>
       <c r="P12">
-        <v>1.968079231039956</v>
+        <v>5.863366532190856</v>
       </c>
       <c r="Q12">
-        <v>1.968079231039956</v>
+        <v>5.863366532190855</v>
       </c>
       <c r="R12">
-        <v>2.522059247843818</v>
+        <v>8.579698098483039</v>
       </c>
       <c r="S12">
-        <v>2.522059247843818</v>
+        <v>8.579698098483039</v>
       </c>
       <c r="T12">
-        <v>1.393574709412937</v>
+        <v>3.147238520396053</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.36122082415067</v>
+        <v>3.261204531080033</v>
       </c>
       <c r="D13">
-        <v>0.9254235715658449</v>
+        <v>1.020380074334446</v>
       </c>
       <c r="E13">
-        <v>1.36122082415067</v>
+        <v>3.261204531080033</v>
       </c>
       <c r="F13">
-        <v>0.978127520364825</v>
+        <v>0.6279185407726234</v>
       </c>
       <c r="G13">
-        <v>0.9579048336022004</v>
+        <v>0.7214433161865669</v>
       </c>
       <c r="H13">
-        <v>1.059439168164938</v>
+        <v>1.39575443444137</v>
       </c>
       <c r="I13">
-        <v>1.019980895473996</v>
+        <v>0.5595652840934555</v>
       </c>
       <c r="J13">
-        <v>0.9254235715658449</v>
+        <v>1.020380074334446</v>
       </c>
       <c r="K13">
-        <v>0.9254235715658449</v>
+        <v>1.020380074334446</v>
       </c>
       <c r="L13">
-        <v>0.978127520364825</v>
+        <v>0.6279185407726234</v>
       </c>
       <c r="M13">
-        <v>1.169674172257748</v>
+        <v>1.944561535926328</v>
       </c>
       <c r="N13">
-        <v>1.169674172257748</v>
+        <v>1.944561535926328</v>
       </c>
       <c r="O13">
-        <v>1.132929170893478</v>
+        <v>1.761625835431342</v>
       </c>
       <c r="P13">
-        <v>1.088257305360447</v>
+        <v>1.636501048729034</v>
       </c>
       <c r="Q13">
-        <v>1.088257305360447</v>
+        <v>1.636501048729034</v>
       </c>
       <c r="R13">
-        <v>1.047548871911796</v>
+        <v>1.482470805130387</v>
       </c>
       <c r="S13">
-        <v>1.047548871911796</v>
+        <v>1.482470805130387</v>
       </c>
       <c r="T13">
-        <v>1.050349468887079</v>
+        <v>1.264377696818082</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.003096941800000001</v>
+        <v>0.9598463787831661</v>
       </c>
       <c r="D14">
-        <v>30.38197599999996</v>
+        <v>4.183999298255401</v>
       </c>
       <c r="E14">
-        <v>0.003096941800000001</v>
+        <v>0.9598463787831661</v>
       </c>
       <c r="F14">
-        <v>-0.0012295708</v>
+        <v>0.7603920160813018</v>
       </c>
       <c r="G14">
-        <v>0.003743037199999997</v>
+        <v>0.8627305261328262</v>
       </c>
       <c r="H14">
-        <v>0.002542095699999998</v>
+        <v>0.8361496675675332</v>
       </c>
       <c r="I14">
-        <v>-0.002792170900000001</v>
+        <v>0.7583303696573928</v>
       </c>
       <c r="J14">
-        <v>30.38197599999996</v>
+        <v>4.183999298255401</v>
       </c>
       <c r="K14">
-        <v>30.38197599999996</v>
+        <v>4.183999298255401</v>
       </c>
       <c r="L14">
-        <v>-0.0012295708</v>
+        <v>0.7603920160813018</v>
       </c>
       <c r="M14">
-        <v>0.0009336855000000008</v>
+        <v>0.860119197432234</v>
       </c>
       <c r="N14">
-        <v>0.0009336855000000008</v>
+        <v>0.860119197432234</v>
       </c>
       <c r="O14">
-        <v>0.001469822233333333</v>
+        <v>0.8521293541440004</v>
       </c>
       <c r="P14">
-        <v>10.12794779033332</v>
+        <v>1.968079231039956</v>
       </c>
       <c r="Q14">
-        <v>10.12794779033332</v>
+        <v>1.968079231039956</v>
       </c>
       <c r="R14">
-        <v>15.19145484274998</v>
+        <v>2.522059247843818</v>
       </c>
       <c r="S14">
-        <v>15.19145484274998</v>
+        <v>2.522059247843818</v>
       </c>
       <c r="T14">
-        <v>5.064556055499993</v>
+        <v>1.393574709412937</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.0030969418</v>
+        <v>1.36122082415067</v>
       </c>
       <c r="D15">
-        <v>30.381976</v>
+        <v>0.9254235715658449</v>
       </c>
       <c r="E15">
-        <v>0.0030969418</v>
+        <v>1.36122082415067</v>
       </c>
       <c r="F15">
-        <v>-0.0012295708</v>
+        <v>0.978127520364825</v>
       </c>
       <c r="G15">
-        <v>0.0037430372</v>
+        <v>0.9579048336022004</v>
       </c>
       <c r="H15">
-        <v>0.0025420957</v>
+        <v>1.059439168164938</v>
       </c>
       <c r="I15">
-        <v>-0.0027921709</v>
+        <v>1.019980895473996</v>
       </c>
       <c r="J15">
-        <v>30.381976</v>
+        <v>0.9254235715658449</v>
       </c>
       <c r="K15">
-        <v>30.381976</v>
+        <v>0.9254235715658449</v>
       </c>
       <c r="L15">
-        <v>-0.0012295708</v>
+        <v>0.978127520364825</v>
       </c>
       <c r="M15">
-        <v>0.0009336855</v>
+        <v>1.169674172257748</v>
       </c>
       <c r="N15">
-        <v>0.0009336855</v>
+        <v>1.169674172257748</v>
       </c>
       <c r="O15">
-        <v>0.001469822233333333</v>
+        <v>1.132929170893478</v>
       </c>
       <c r="P15">
-        <v>10.12794779033333</v>
+        <v>1.088257305360447</v>
       </c>
       <c r="Q15">
-        <v>10.12794779033333</v>
+        <v>1.088257305360447</v>
       </c>
       <c r="R15">
-        <v>15.19145484275</v>
+        <v>1.047548871911796</v>
       </c>
       <c r="S15">
-        <v>15.19145484275</v>
+        <v>1.047548871911796</v>
       </c>
       <c r="T15">
-        <v>5.0645560555</v>
+        <v>1.050349468887079</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>60.759821</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="D16">
-        <v>0.0030969418</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="E16">
-        <v>60.759821</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="F16">
-        <v>-0.0064332714</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="G16">
-        <v>-0.0045788157</v>
+        <v>0.003743037199999997</v>
       </c>
       <c r="H16">
-        <v>0.013834371</v>
+        <v>0.002542095699999998</v>
       </c>
       <c r="I16">
-        <v>0.0062360681</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="J16">
-        <v>0.0030969418</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="K16">
-        <v>0.0030969418</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="L16">
-        <v>-0.0064332714</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M16">
-        <v>30.3766938643</v>
+        <v>0.0009336855000000008</v>
       </c>
       <c r="N16">
-        <v>30.3766938643</v>
+        <v>0.0009336855000000008</v>
       </c>
       <c r="O16">
-        <v>20.25574069986667</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P16">
-        <v>20.2521615568</v>
+        <v>10.12794779033332</v>
       </c>
       <c r="Q16">
-        <v>20.2521615568</v>
+        <v>10.12794779033332</v>
       </c>
       <c r="R16">
-        <v>15.18989540305</v>
+        <v>15.19145484274998</v>
       </c>
       <c r="S16">
-        <v>15.18989540305</v>
+        <v>15.19145484274998</v>
       </c>
       <c r="T16">
-        <v>10.12866271563333</v>
+        <v>5.064556055499993</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.00071394091</v>
+        <v>0.0030969418</v>
       </c>
       <c r="D17">
-        <v>0.00367841</v>
+        <v>30.381976</v>
       </c>
       <c r="E17">
-        <v>0.00071394091</v>
+        <v>0.0030969418</v>
       </c>
       <c r="F17">
-        <v>7.0560231</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="G17">
-        <v>0.26766029</v>
+        <v>0.0037430372</v>
       </c>
       <c r="H17">
-        <v>-0.0044875526</v>
+        <v>0.0025420957</v>
       </c>
       <c r="I17">
-        <v>0.007026137</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="J17">
-        <v>0.00367841</v>
+        <v>30.381976</v>
       </c>
       <c r="K17">
-        <v>0.00367841</v>
+        <v>30.381976</v>
       </c>
       <c r="L17">
-        <v>7.0560231</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M17">
-        <v>3.528368520455</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N17">
-        <v>3.528368520455</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O17">
-        <v>2.350749829436667</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P17">
-        <v>2.35347181697</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q17">
-        <v>2.35347181697</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R17">
-        <v>1.7660234652275</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S17">
-        <v>1.7660234652275</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T17">
-        <v>1.221769054218333</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3.546992908578082</v>
+        <v>60.759821</v>
       </c>
       <c r="D18">
-        <v>2.190735432625203</v>
+        <v>0.0030969418</v>
       </c>
       <c r="E18">
-        <v>3.546992908578082</v>
+        <v>60.759821</v>
       </c>
       <c r="F18">
-        <v>1.775332564508494</v>
+        <v>-0.0064332714</v>
       </c>
       <c r="G18">
-        <v>0.1322031380882192</v>
+        <v>-0.0045788157</v>
       </c>
       <c r="H18">
-        <v>0.03338700197178082</v>
+        <v>0.013834371</v>
       </c>
       <c r="I18">
-        <v>5.319466521345481</v>
+        <v>0.0062360681</v>
       </c>
       <c r="J18">
-        <v>2.190735432625203</v>
+        <v>0.0030969418</v>
       </c>
       <c r="K18">
-        <v>2.190735432625203</v>
+        <v>0.0030969418</v>
       </c>
       <c r="L18">
-        <v>1.775332564508494</v>
+        <v>-0.0064332714</v>
       </c>
       <c r="M18">
-        <v>2.661162736543288</v>
+        <v>30.3766938643</v>
       </c>
       <c r="N18">
-        <v>2.661162736543288</v>
+        <v>30.3766938643</v>
       </c>
       <c r="O18">
-        <v>1.785237491686119</v>
+        <v>20.25574069986667</v>
       </c>
       <c r="P18">
-        <v>2.50435363523726</v>
+        <v>20.2521615568</v>
       </c>
       <c r="Q18">
-        <v>2.50435363523726</v>
+        <v>20.2521615568</v>
       </c>
       <c r="R18">
-        <v>2.425949084584246</v>
+        <v>15.18989540305</v>
       </c>
       <c r="S18">
-        <v>2.425949084584246</v>
+        <v>15.18989540305</v>
       </c>
       <c r="T18">
-        <v>2.166352927852877</v>
+        <v>10.12866271563333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>5.005963437736842</v>
+        <v>0.00071394091</v>
       </c>
       <c r="D19">
-        <v>2.504103374543155</v>
+        <v>0.00367841</v>
       </c>
       <c r="E19">
-        <v>5.005963437736842</v>
+        <v>0.00071394091</v>
       </c>
       <c r="F19">
-        <v>1.705068172310526</v>
+        <v>7.0560231</v>
       </c>
       <c r="G19">
-        <v>0.1269133485031579</v>
+        <v>0.26766029</v>
       </c>
       <c r="H19">
-        <v>0.03246660502157895</v>
+        <v>-0.0044875526</v>
       </c>
       <c r="I19">
-        <v>5.109614947677895</v>
+        <v>0.007026137</v>
       </c>
       <c r="J19">
-        <v>2.504103374543155</v>
+        <v>0.00367841</v>
       </c>
       <c r="K19">
-        <v>2.504103374543155</v>
+        <v>0.00367841</v>
       </c>
       <c r="L19">
-        <v>1.705068172310526</v>
+        <v>7.0560231</v>
       </c>
       <c r="M19">
-        <v>3.355515805023684</v>
+        <v>3.528368520455</v>
       </c>
       <c r="N19">
-        <v>3.355515805023684</v>
+        <v>3.528368520455</v>
       </c>
       <c r="O19">
-        <v>2.247832738356316</v>
+        <v>2.350749829436667</v>
       </c>
       <c r="P19">
-        <v>3.071711661530175</v>
+        <v>2.35347181697</v>
       </c>
       <c r="Q19">
-        <v>3.071711661530174</v>
+        <v>2.35347181697</v>
       </c>
       <c r="R19">
-        <v>2.929809589783419</v>
+        <v>1.7660234652275</v>
       </c>
       <c r="S19">
-        <v>2.929809589783419</v>
+        <v>1.7660234652275</v>
       </c>
       <c r="T19">
-        <v>2.414021647632192</v>
+        <v>1.221769054218333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>6.814890419515787</v>
+        <v>3.546992908578082</v>
       </c>
       <c r="D20">
-        <v>5.005990693075261</v>
+        <v>2.190735432625203</v>
       </c>
       <c r="E20">
-        <v>6.814890419515787</v>
+        <v>3.546992908578082</v>
       </c>
       <c r="F20">
-        <v>0.000953589023157895</v>
+        <v>1.775332564508494</v>
       </c>
       <c r="G20">
-        <v>0.005181390923157896</v>
+        <v>0.1322031380882192</v>
       </c>
       <c r="H20">
-        <v>3.406636220694736</v>
+        <v>0.03338700197178082</v>
       </c>
       <c r="I20">
-        <v>-0.001357140015789474</v>
+        <v>5.319466521345481</v>
       </c>
       <c r="J20">
-        <v>5.005990693075261</v>
+        <v>2.190735432625203</v>
       </c>
       <c r="K20">
-        <v>5.005990693075261</v>
+        <v>2.190735432625203</v>
       </c>
       <c r="L20">
-        <v>0.000953589023157895</v>
+        <v>1.775332564508494</v>
       </c>
       <c r="M20">
-        <v>3.407922004269472</v>
+        <v>2.661162736543288</v>
       </c>
       <c r="N20">
-        <v>3.407922004269472</v>
+        <v>2.661162736543288</v>
       </c>
       <c r="O20">
-        <v>3.407493409744561</v>
+        <v>1.785237491686119</v>
       </c>
       <c r="P20">
-        <v>3.940611567204735</v>
+        <v>2.50435363523726</v>
       </c>
       <c r="Q20">
-        <v>3.940611567204735</v>
+        <v>2.50435363523726</v>
       </c>
       <c r="R20">
-        <v>4.206956348672366</v>
+        <v>2.425949084584246</v>
       </c>
       <c r="S20">
-        <v>4.206956348672366</v>
+        <v>2.425949084584246</v>
       </c>
       <c r="T20">
-        <v>2.538715862202718</v>
+        <v>2.166352927852877</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>-3.824127051843039E-05</v>
+        <v>5.005963437736842</v>
       </c>
       <c r="D21">
-        <v>0.0009851134224001727</v>
+        <v>2.504103374543155</v>
       </c>
       <c r="E21">
-        <v>-3.824127051843039E-05</v>
+        <v>5.005963437736842</v>
       </c>
       <c r="F21">
-        <v>1.309209376322906</v>
+        <v>1.705068172310526</v>
       </c>
       <c r="G21">
-        <v>0.3961782963993183</v>
+        <v>0.1269133485031579</v>
       </c>
       <c r="H21">
-        <v>0.0003874337007359263</v>
+        <v>0.03246660502157895</v>
       </c>
       <c r="I21">
-        <v>1.089884389547289</v>
+        <v>5.109614947677895</v>
       </c>
       <c r="J21">
-        <v>0.0009851134224001727</v>
+        <v>2.504103374543155</v>
       </c>
       <c r="K21">
-        <v>0.0009851134224001727</v>
+        <v>2.504103374543155</v>
       </c>
       <c r="L21">
-        <v>1.309209376322906</v>
+        <v>1.705068172310526</v>
       </c>
       <c r="M21">
-        <v>0.6545855675261937</v>
+        <v>3.355515805023684</v>
       </c>
       <c r="N21">
-        <v>0.6545855675261937</v>
+        <v>3.355515805023684</v>
       </c>
       <c r="O21">
-        <v>0.4365195229177077</v>
+        <v>2.247832738356316</v>
       </c>
       <c r="P21">
-        <v>0.4367187494915958</v>
+        <v>3.071711661530175</v>
       </c>
       <c r="Q21">
-        <v>0.4367187494915958</v>
+        <v>3.071711661530174</v>
       </c>
       <c r="R21">
-        <v>0.3277853404742969</v>
+        <v>2.929809589783419</v>
       </c>
       <c r="S21">
-        <v>0.3277853404742969</v>
+        <v>2.929809589783419</v>
       </c>
       <c r="T21">
-        <v>0.4661010613536885</v>
+        <v>2.414021647632192</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>-0.0002872047814168314</v>
+        <v>6.814890419515787</v>
       </c>
       <c r="D22">
-        <v>0.6404703130826073</v>
+        <v>5.005990693075261</v>
       </c>
       <c r="E22">
-        <v>-0.0002872047814168314</v>
+        <v>6.814890419515787</v>
       </c>
       <c r="F22">
-        <v>1.249658272177324</v>
+        <v>0.000953589023157895</v>
       </c>
       <c r="G22">
-        <v>2.268916713792476</v>
+        <v>0.005181390923157896</v>
       </c>
       <c r="H22">
-        <v>0.002803107489512051</v>
+        <v>3.406636220694736</v>
       </c>
       <c r="I22">
-        <v>0.002043168524354677</v>
+        <v>-0.001357140015789474</v>
       </c>
       <c r="J22">
-        <v>0.6404703130826073</v>
+        <v>5.005990693075261</v>
       </c>
       <c r="K22">
-        <v>0.6404703130826073</v>
+        <v>5.005990693075261</v>
       </c>
       <c r="L22">
-        <v>1.249658272177324</v>
+        <v>0.000953589023157895</v>
       </c>
       <c r="M22">
-        <v>0.6246855336979534</v>
+        <v>3.407922004269472</v>
       </c>
       <c r="N22">
-        <v>0.6246855336979534</v>
+        <v>3.407922004269472</v>
       </c>
       <c r="O22">
-        <v>0.417391391628473</v>
+        <v>3.407493409744561</v>
       </c>
       <c r="P22">
-        <v>0.6299471268261714</v>
+        <v>3.940611567204735</v>
       </c>
       <c r="Q22">
-        <v>0.6299471268261714</v>
+        <v>3.940611567204735</v>
       </c>
       <c r="R22">
-        <v>0.6325779233902804</v>
+        <v>4.206956348672366</v>
       </c>
       <c r="S22">
-        <v>0.6325779233902804</v>
+        <v>4.206956348672366</v>
       </c>
       <c r="T22">
-        <v>0.6939340617141428</v>
+        <v>2.538715862202718</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.002303868019616867</v>
+        <v>-3.824127051843039E-05</v>
       </c>
       <c r="D23">
-        <v>0.04323703425391151</v>
+        <v>0.0009851134224001727</v>
       </c>
       <c r="E23">
-        <v>0.002303868019616867</v>
+        <v>-3.824127051843039E-05</v>
       </c>
       <c r="F23">
-        <v>1.478040375546567</v>
+        <v>1.309209376322906</v>
       </c>
       <c r="G23">
-        <v>1.437118756671864</v>
+        <v>0.3961782963993183</v>
       </c>
       <c r="H23">
-        <v>0.7438671392546323</v>
+        <v>0.0003874337007359263</v>
       </c>
       <c r="I23">
-        <v>0.04493336651283093</v>
+        <v>1.089884389547289</v>
       </c>
       <c r="J23">
-        <v>0.04323703425391151</v>
+        <v>0.0009851134224001727</v>
       </c>
       <c r="K23">
-        <v>0.04323703425391151</v>
+        <v>0.0009851134224001727</v>
       </c>
       <c r="L23">
-        <v>1.478040375546567</v>
+        <v>1.309209376322906</v>
       </c>
       <c r="M23">
-        <v>0.7401721217830917</v>
+        <v>0.6545855675261937</v>
       </c>
       <c r="N23">
-        <v>0.7401721217830917</v>
+        <v>0.6545855675261937</v>
       </c>
       <c r="O23">
-        <v>0.7414037942736051</v>
+        <v>0.4365195229177077</v>
       </c>
       <c r="P23">
-        <v>0.5078604259400316</v>
+        <v>0.4367187494915958</v>
       </c>
       <c r="Q23">
-        <v>0.5078604259400317</v>
+        <v>0.4367187494915958</v>
       </c>
       <c r="R23">
-        <v>0.3917045780185016</v>
+        <v>0.3277853404742969</v>
       </c>
       <c r="S23">
-        <v>0.3917045780185016</v>
+        <v>0.3277853404742969</v>
       </c>
       <c r="T23">
-        <v>0.6249167567099038</v>
+        <v>0.4661010613536885</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>2.359723982081754</v>
+        <v>-0.0002872047814168314</v>
       </c>
       <c r="D24">
-        <v>2.195642819680752</v>
+        <v>0.6404703130826073</v>
       </c>
       <c r="E24">
-        <v>2.359723982081754</v>
+        <v>-0.0002872047814168314</v>
       </c>
       <c r="F24">
-        <v>0.06129398204745091</v>
+        <v>1.249658272177324</v>
       </c>
       <c r="G24">
-        <v>0.4768826445781505</v>
+        <v>2.268916713792476</v>
       </c>
       <c r="H24">
-        <v>1.253314960072906</v>
+        <v>0.002803107489512051</v>
       </c>
       <c r="I24">
-        <v>2.989604547419955</v>
+        <v>0.002043168524354677</v>
       </c>
       <c r="J24">
-        <v>2.195642819680752</v>
+        <v>0.6404703130826073</v>
       </c>
       <c r="K24">
-        <v>2.195642819680752</v>
+        <v>0.6404703130826073</v>
       </c>
       <c r="L24">
-        <v>0.06129398204745091</v>
+        <v>1.249658272177324</v>
       </c>
       <c r="M24">
-        <v>1.210508982064603</v>
+        <v>0.6246855336979534</v>
       </c>
       <c r="N24">
-        <v>1.210508982064603</v>
+        <v>0.6246855336979534</v>
       </c>
       <c r="O24">
-        <v>1.224777641400704</v>
+        <v>0.417391391628473</v>
       </c>
       <c r="P24">
-        <v>1.538886927936653</v>
+        <v>0.6299471268261714</v>
       </c>
       <c r="Q24">
-        <v>1.538886927936652</v>
+        <v>0.6299471268261714</v>
       </c>
       <c r="R24">
-        <v>1.703075900872677</v>
+        <v>0.6325779233902804</v>
       </c>
       <c r="S24">
-        <v>1.703075900872677</v>
+        <v>0.6325779233902804</v>
       </c>
       <c r="T24">
-        <v>1.556077155980161</v>
+        <v>0.6939340617141428</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>7.670671026192249</v>
+        <v>0.002303868019616867</v>
       </c>
       <c r="D25">
-        <v>5.389801887792598E-05</v>
+        <v>0.04323703425391151</v>
       </c>
       <c r="E25">
-        <v>7.670671026192249</v>
+        <v>0.002303868019616867</v>
       </c>
       <c r="F25">
-        <v>0.001994453787480646</v>
+        <v>1.478040375546567</v>
       </c>
       <c r="G25">
-        <v>0.002627192334961447</v>
+        <v>1.437118756671864</v>
       </c>
       <c r="H25">
-        <v>2.225291216432351</v>
+        <v>0.7438671392546323</v>
       </c>
       <c r="I25">
-        <v>-0.0001223677793042239</v>
+        <v>0.04493336651283093</v>
       </c>
       <c r="J25">
-        <v>5.389801887792598E-05</v>
+        <v>0.04323703425391151</v>
       </c>
       <c r="K25">
-        <v>5.389801887792598E-05</v>
+        <v>0.04323703425391151</v>
       </c>
       <c r="L25">
-        <v>0.001994453787480646</v>
+        <v>1.478040375546567</v>
       </c>
       <c r="M25">
-        <v>3.836332739989865</v>
+        <v>0.7401721217830917</v>
       </c>
       <c r="N25">
-        <v>3.836332739989865</v>
+        <v>0.7401721217830917</v>
       </c>
       <c r="O25">
-        <v>3.299318898804027</v>
+        <v>0.7414037942736051</v>
       </c>
       <c r="P25">
-        <v>2.557573125999536</v>
+        <v>0.5078604259400316</v>
       </c>
       <c r="Q25">
-        <v>2.557573125999536</v>
+        <v>0.5078604259400317</v>
       </c>
       <c r="R25">
-        <v>1.918193319004371</v>
+        <v>0.3917045780185016</v>
       </c>
       <c r="S25">
-        <v>1.918193319004371</v>
+        <v>0.3917045780185016</v>
       </c>
       <c r="T25">
-        <v>1.650085903164435</v>
+        <v>0.6249167567099038</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.01254785470251994</v>
+        <v>2.359723982081754</v>
       </c>
       <c r="D26">
-        <v>0.2434722769436249</v>
+        <v>2.195642819680752</v>
       </c>
       <c r="E26">
-        <v>0.01254785470251994</v>
+        <v>2.359723982081754</v>
       </c>
       <c r="F26">
-        <v>1.467031158322027</v>
+        <v>0.06129398204745091</v>
       </c>
       <c r="G26">
-        <v>1.055946429035</v>
+        <v>0.4768826445781505</v>
       </c>
       <c r="H26">
-        <v>1.951167112277632</v>
+        <v>1.253314960072906</v>
       </c>
       <c r="I26">
-        <v>-0.0002503768792746612</v>
+        <v>2.989604547419955</v>
       </c>
       <c r="J26">
-        <v>0.2434722769436249</v>
+        <v>2.195642819680752</v>
       </c>
       <c r="K26">
-        <v>0.2434722769436249</v>
+        <v>2.195642819680752</v>
       </c>
       <c r="L26">
-        <v>1.467031158322027</v>
+        <v>0.06129398204745091</v>
       </c>
       <c r="M26">
-        <v>0.7397895065122733</v>
+        <v>1.210508982064603</v>
       </c>
       <c r="N26">
-        <v>0.7397895065122733</v>
+        <v>1.210508982064603</v>
       </c>
       <c r="O26">
-        <v>1.143582041767393</v>
+        <v>1.224777641400704</v>
       </c>
       <c r="P26">
-        <v>0.5743504299893906</v>
+        <v>1.538886927936653</v>
       </c>
       <c r="Q26">
-        <v>0.5743504299893906</v>
+        <v>1.538886927936652</v>
       </c>
       <c r="R26">
-        <v>0.4916308917279492</v>
+        <v>1.703075900872677</v>
       </c>
       <c r="S26">
-        <v>0.4916308917279492</v>
+        <v>1.703075900872677</v>
       </c>
       <c r="T26">
-        <v>0.7883190757335882</v>
+        <v>1.556077155980161</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.06394563297129448</v>
+        <v>7.670671026192249</v>
       </c>
       <c r="D27">
-        <v>1.837449966578746</v>
+        <v>5.389801887792598E-05</v>
       </c>
       <c r="E27">
-        <v>0.06394563297129448</v>
+        <v>7.670671026192249</v>
       </c>
       <c r="F27">
-        <v>1.749504689973967</v>
+        <v>0.001994453787480646</v>
       </c>
       <c r="G27">
-        <v>0.2677660244023903</v>
+        <v>0.002627192334961447</v>
       </c>
       <c r="H27">
-        <v>1.712282394985681</v>
+        <v>2.225291216432351</v>
       </c>
       <c r="I27">
-        <v>2.807955566646429</v>
+        <v>-0.0001223677793042239</v>
       </c>
       <c r="J27">
-        <v>1.837449966578746</v>
+        <v>5.389801887792598E-05</v>
       </c>
       <c r="K27">
-        <v>1.837449966578746</v>
+        <v>5.389801887792598E-05</v>
       </c>
       <c r="L27">
-        <v>1.749504689973967</v>
+        <v>0.001994453787480646</v>
       </c>
       <c r="M27">
-        <v>0.9067251614726306</v>
+        <v>3.836332739989865</v>
       </c>
       <c r="N27">
-        <v>0.9067251614726306</v>
+        <v>3.836332739989865</v>
       </c>
       <c r="O27">
-        <v>1.175244239310314</v>
+        <v>3.299318898804027</v>
       </c>
       <c r="P27">
-        <v>1.216966763174669</v>
+        <v>2.557573125999536</v>
       </c>
       <c r="Q27">
-        <v>1.216966763174669</v>
+        <v>2.557573125999536</v>
       </c>
       <c r="R27">
-        <v>1.372087564025688</v>
+        <v>1.918193319004371</v>
       </c>
       <c r="S27">
-        <v>1.372087564025688</v>
+        <v>1.918193319004371</v>
       </c>
       <c r="T27">
-        <v>1.406484045926418</v>
+        <v>1.650085903164435</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.3143834722652213</v>
+        <v>0.01254785470251994</v>
       </c>
       <c r="D28">
-        <v>1.286064911523321</v>
+        <v>0.2434722769436249</v>
       </c>
       <c r="E28">
-        <v>0.3143834722652213</v>
+        <v>0.01254785470251994</v>
       </c>
       <c r="F28">
-        <v>2.889582195113618</v>
+        <v>1.467031158322027</v>
       </c>
       <c r="G28">
-        <v>0.2563354225042173</v>
+        <v>1.055946429035</v>
       </c>
       <c r="H28">
-        <v>3.158382722944837</v>
+        <v>1.951167112277632</v>
       </c>
       <c r="I28">
-        <v>1.777564034226109</v>
+        <v>-0.0002503768792746612</v>
       </c>
       <c r="J28">
-        <v>1.286064911523321</v>
+        <v>0.2434722769436249</v>
       </c>
       <c r="K28">
-        <v>1.286064911523321</v>
+        <v>0.2434722769436249</v>
       </c>
       <c r="L28">
-        <v>2.889582195113618</v>
+        <v>1.467031158322027</v>
       </c>
       <c r="M28">
-        <v>1.60198283368942</v>
+        <v>0.7397895065122733</v>
       </c>
       <c r="N28">
-        <v>1.60198283368942</v>
+        <v>0.7397895065122733</v>
       </c>
       <c r="O28">
-        <v>2.120782796774559</v>
+        <v>1.143582041767393</v>
       </c>
       <c r="P28">
-        <v>1.496676859634054</v>
+        <v>0.5743504299893906</v>
       </c>
       <c r="Q28">
-        <v>1.496676859634054</v>
+        <v>0.5743504299893906</v>
       </c>
       <c r="R28">
-        <v>1.44402387260637</v>
+        <v>0.4916308917279492</v>
       </c>
       <c r="S28">
-        <v>1.44402387260637</v>
+        <v>0.4916308917279492</v>
       </c>
       <c r="T28">
-        <v>1.61371879309622</v>
+        <v>0.7883190757335882</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.06394563297129448</v>
+      </c>
+      <c r="D29">
+        <v>1.837449966578746</v>
+      </c>
+      <c r="E29">
+        <v>0.06394563297129448</v>
+      </c>
+      <c r="F29">
+        <v>1.749504689973967</v>
+      </c>
+      <c r="G29">
+        <v>0.2677660244023903</v>
+      </c>
+      <c r="H29">
+        <v>1.712282394985681</v>
+      </c>
+      <c r="I29">
+        <v>2.807955566646429</v>
+      </c>
+      <c r="J29">
+        <v>1.837449966578746</v>
+      </c>
+      <c r="K29">
+        <v>1.837449966578746</v>
+      </c>
+      <c r="L29">
+        <v>1.749504689973967</v>
+      </c>
+      <c r="M29">
+        <v>0.9067251614726306</v>
+      </c>
+      <c r="N29">
+        <v>0.9067251614726306</v>
+      </c>
+      <c r="O29">
+        <v>1.175244239310314</v>
+      </c>
+      <c r="P29">
+        <v>1.216966763174669</v>
+      </c>
+      <c r="Q29">
+        <v>1.216966763174669</v>
+      </c>
+      <c r="R29">
+        <v>1.372087564025688</v>
+      </c>
+      <c r="S29">
+        <v>1.372087564025688</v>
+      </c>
+      <c r="T29">
+        <v>1.406484045926418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.3143834722652213</v>
+      </c>
+      <c r="D30">
+        <v>1.286064911523321</v>
+      </c>
+      <c r="E30">
+        <v>0.3143834722652213</v>
+      </c>
+      <c r="F30">
+        <v>2.889582195113618</v>
+      </c>
+      <c r="G30">
+        <v>0.2563354225042173</v>
+      </c>
+      <c r="H30">
+        <v>3.158382722944837</v>
+      </c>
+      <c r="I30">
+        <v>1.777564034226109</v>
+      </c>
+      <c r="J30">
+        <v>1.286064911523321</v>
+      </c>
+      <c r="K30">
+        <v>1.286064911523321</v>
+      </c>
+      <c r="L30">
+        <v>2.889582195113618</v>
+      </c>
+      <c r="M30">
+        <v>1.60198283368942</v>
+      </c>
+      <c r="N30">
+        <v>1.60198283368942</v>
+      </c>
+      <c r="O30">
+        <v>2.120782796774559</v>
+      </c>
+      <c r="P30">
+        <v>1.496676859634054</v>
+      </c>
+      <c r="Q30">
+        <v>1.496676859634054</v>
+      </c>
+      <c r="R30">
+        <v>1.44402387260637</v>
+      </c>
+      <c r="S30">
+        <v>1.44402387260637</v>
+      </c>
+      <c r="T30">
+        <v>1.61371879309622</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.09220480500707605</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>-0.0002502693759165196</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.09220480500707605</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>6.441354482008609</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.2839216249401209</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>3.58399353888067</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.01071581820318574</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>-0.0002502693759165196</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>-0.0002502693759165196</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>6.441354482008609</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>3.266779643507843</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>3.266779643507843</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>3.372517608632119</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>2.17776967254659</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>2.17776967254659</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.633264687065963</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.633264687065963</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.735323333277291</v>
       </c>
     </row>
